--- a/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
+++ b/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="32" r:id="rId1"/>
+    <sheet name="Instructions" sheetId="33" r:id="rId1"/>
     <sheet name="System Overview" sheetId="21" r:id="rId2"/>
     <sheet name="Software Lifecycles" sheetId="22" r:id="rId3"/>
     <sheet name="Hardware Lifecycles" sheetId="23" r:id="rId4"/>
@@ -76,8 +76,8 @@
     <definedName name="Portal_SUM">'[2]POM 2 Enabler - FY12'!$N$102</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'System Overview'!$A$2:$M$11</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">'DHMSM Data Requirements'!$6:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Hardware Lifecycles'!$7:$7</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Software Lifecycles'!$7:$7</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Hardware Lifecycles'!$9:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Software Lifecycles'!$9:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'SOR Overlap With DHMSM'!$6:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'System Data'!$6:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">'System Interfaces'!$6:$6</definedName>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
   <si>
     <t>Garrison / Theater</t>
   </si>
@@ -218,32 +218,6 @@
     <t>This section displays data objects for which @SYSTEM@ is Source of Record (SOR) and which of those that DHMSM is also SOR for.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">This section displays </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@SYSTEM@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> that are source of record for the data objects that DHMSM capabilities consume. </t>
-    </r>
-  </si>
-  <si>
     <t>System Name</t>
   </si>
   <si>
@@ -251,9 +225,6 @@
   </si>
   <si>
     <t>System Modernization Timeline</t>
-  </si>
-  <si>
-    <t>This section displays the cost to upgrade software and hardware that @SYSTEM@ uses as they retire.</t>
   </si>
   <si>
     <t>Software Cost</t>
@@ -341,7 +312,19 @@
     <t>NA</t>
   </si>
   <si>
-    <t>This section displays the data objects @SYSTEM@ is a source of record of and consumes and also shows the number of low probability systems that @SYSTEM@ provides the data object to. It also shows the other systems that are a source of the data object and the number of low probability systems they provide data for.</t>
+    <t>Software characteristics are based upon TAP data submissions provided by the DHA and Services program offices. Projected upgrade costs are based solely upon data provided to OTM.</t>
+  </si>
+  <si>
+    <t>Hardware characteristics are based upon TAP data submissions provided by the DHA and Services program offices. Projected upgrade costs are based solely upon data provided to OTM.</t>
+  </si>
+  <si>
+    <t>This section displays the cost to upgrade software and hardware that @SYSTEM@ uses as the modules reach end-of-life.</t>
+  </si>
+  <si>
+    <t>This section displays the data objects that @SYSTEM@ is a source of record of and the numbers of systems which DMHRSi sends the data to. Additionally, this section displays the data objects that @SYSTEM@ consumes, the other systems that are a source of the data object and the number of low probability systems they provide data for.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This section displays @SYSTEM@ that are source of record for the data objects that DHMSM capabilities consume. </t>
   </si>
   <si>
     <t xml:space="preserve"> - In 2011, MHS leadership initiated the DoD Health IT (HIT) Transition Application Plan (TAP) project. The project is designed to yield a comprehensive migration strategy with which to effectively and efficiently transition existing MHS program, projects and initiatives (PPI) to the future-state electronic health record (EHR) environment. The plan will synchronize the MHS’ technical, functional, infrastructure, and financial management processes of transitioning clinical and business functionalities to the future-state EHR.
@@ -372,7 +355,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,14 +492,6 @@
       <color theme="1"/>
       <name val="Impact"/>
       <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.5"/>
@@ -781,7 +756,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -836,14 +811,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -855,12 +830,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -885,14 +860,38 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -909,31 +908,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -956,6 +931,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -43305,7 +43289,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -43318,12 +43302,12 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32.25" customHeight="1">
       <c r="A2" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -43339,12 +43323,12 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="281.25" customHeight="1">
       <c r="A4" s="40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -43360,12 +43344,12 @@
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="32" customFormat="1" ht="29.25" customHeight="1">
       <c r="A6" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -43381,12 +43365,12 @@
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="134.25" customHeight="1">
       <c r="A8" s="43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -43480,8 +43464,8 @@
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:M4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43500,22 +43484,22 @@
     <row r="1" spans="1:13" ht="7.5" customHeight="1"/>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="250.5" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="46" t="s">
-        <v>37</v>
+      <c r="B2" s="54" t="s">
+        <v>36</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
-        <v>64</v>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56" t="s">
+        <v>66</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -43535,7 +43519,7 @@
     <row r="4" spans="1:13" ht="32.25" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -43573,22 +43557,22 @@
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="168.75" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48" t="s">
-        <v>60</v>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56" t="s">
+        <v>58</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="50"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="58"/>
     </row>
     <row r="8" spans="1:13" ht="8.25" customHeight="1">
       <c r="A8" s="5"/>
@@ -43599,47 +43583,47 @@
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="57"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="48"/>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="28.5" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51" t="s">
+      <c r="C10" s="49"/>
+      <c r="D10" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="51" t="s">
+      <c r="E10" s="59"/>
+      <c r="F10" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="49"/>
+      <c r="H10" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="51"/>
+      <c r="J10" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="51"/>
-      <c r="H10" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="59"/>
-      <c r="J10" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51" t="s">
+      <c r="K10" s="49"/>
+      <c r="L10" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="51"/>
+      <c r="M10" s="49"/>
     </row>
     <row r="11" spans="1:13" ht="42.75" customHeight="1">
       <c r="A11" s="5"/>
@@ -43658,6 +43642,10 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B2:C2"/>
@@ -43672,10 +43660,6 @@
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43688,10 +43672,10 @@
   <sheetPr>
     <tabColor rgb="FF366092"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -43708,7 +43692,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1">
@@ -43735,70 +43719,87 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A5" s="64" t="s">
-        <v>21</v>
+    <row r="5" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A5" s="67" t="s">
+        <v>59</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="69"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="25.5">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A7" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="25.5">
+      <c r="A9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>51</v>
+      <c r="B9" s="35" t="s">
+        <v>49</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C9" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D9" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E9" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G9" s="35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="23"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28"/>
+    <row r="10" spans="1:7">
+      <c r="A10" s="23"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="28"/>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>53</v>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="89" orientation="portrait" r:id="rId1"/>
@@ -43811,10 +43812,10 @@
   <sheetPr>
     <tabColor rgb="FF366092"/>
   </sheetPr>
-  <dimension ref="A2:G8"/>
+  <dimension ref="A2:G10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -43830,15 +43831,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="66" t="s">
@@ -43851,57 +43852,69 @@
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A5" s="66" t="s">
+    <row r="5" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A5" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="69"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A7" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="70" t="s">
-        <v>55</v>
+      <c r="B7" s="66"/>
+      <c r="C7" s="73" t="s">
+        <v>53</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
     </row>
-    <row r="7" spans="1:7" ht="25.5">
-      <c r="A7" s="35" t="s">
+    <row r="9" spans="1:7" ht="25.5">
+      <c r="A9" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>51</v>
+      <c r="B9" s="35" t="s">
+        <v>49</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C9" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D9" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E9" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G9" s="35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="23"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28"/>
+    <row r="10" spans="1:7">
+      <c r="A10" s="23"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="89" orientation="portrait" r:id="rId1"/>
@@ -43917,29 +43930,29 @@
   <dimension ref="A2:J11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="10" width="12.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
+    <col min="2" max="10" width="12" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="74" t="s">
-        <v>38</v>
+      <c r="A2" s="77" t="s">
+        <v>37</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="1:10" ht="18">
       <c r="A3" s="12"/>
@@ -43949,17 +43962,17 @@
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="71" t="s">
-        <v>39</v>
+      <c r="B4" s="74" t="s">
+        <v>61</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="73"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2"/>
@@ -43991,12 +44004,12 @@
         <v>2022</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="41.25" customHeight="1">
       <c r="A7" s="35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="24">
         <v>0</v>
@@ -44028,7 +44041,7 @@
     </row>
     <row r="8" spans="1:10" ht="41.25" customHeight="1">
       <c r="A8" s="35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="24">
         <v>0</v>
@@ -44060,7 +44073,7 @@
     </row>
     <row r="10" spans="1:10" ht="41.25" customHeight="1">
       <c r="A10" s="35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="25">
         <v>0</v>
@@ -44068,7 +44081,7 @@
     </row>
     <row r="11" spans="1:10" ht="41.25" customHeight="1">
       <c r="A11" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" s="25">
         <v>0</v>
@@ -44092,8 +44105,8 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:J4"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -44106,41 +44119,41 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1"/>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
     </row>
     <row r="4" spans="1:10" ht="53.25" customHeight="1">
       <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="75" t="s">
-        <v>61</v>
+      <c r="B4" s="78" t="s">
+        <v>62</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="77"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="39.75" customHeight="1">
       <c r="A6" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -44165,8 +44178,8 @@
   </sheetPr>
   <dimension ref="A2:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -44177,16 +44190,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="18">
-      <c r="A2" s="74" t="s">
-        <v>58</v>
+      <c r="A2" s="77" t="s">
+        <v>56</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="77"/>
     </row>
     <row r="3" spans="1:2" ht="18">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
     </row>
-    <row r="4" spans="1:2" ht="50.25" customHeight="1">
+    <row r="4" spans="1:2" ht="55.5" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -44228,7 +44241,7 @@
   <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -44240,11 +44253,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="18">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
     </row>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="12"/>
@@ -44255,10 +44268,10 @@
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="71" t="s">
-        <v>35</v>
+      <c r="B4" s="74" t="s">
+        <v>63</v>
       </c>
-      <c r="C4" s="73"/>
+      <c r="C4" s="76"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2"/>
@@ -44273,7 +44286,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -44299,8 +44312,8 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -44323,40 +44336,40 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1"/>
     <row r="2" spans="1:13" ht="18" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81" t="s">
-        <v>43</v>
+      <c r="B4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84" t="s">
+        <v>41</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="83"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="86"/>
     </row>
     <row r="6" spans="1:13" ht="39.75" customHeight="1">
       <c r="A6" s="35" t="s">
@@ -44393,10 +44406,10 @@
         <v>15</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:13">

--- a/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
+++ b/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="33" r:id="rId1"/>
@@ -869,6 +869,21 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -892,21 +907,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -43464,8 +43464,8 @@
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43484,22 +43484,22 @@
     <row r="1" spans="1:13" ht="7.5" customHeight="1"/>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="250.5" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -43557,22 +43557,22 @@
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="168.75" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="58"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="50"/>
     </row>
     <row r="8" spans="1:13" ht="8.25" customHeight="1">
       <c r="A8" s="5"/>
@@ -43583,70 +43583,65 @@
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="48"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53"/>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="28.5" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49" t="s">
+      <c r="C10" s="54"/>
+      <c r="D10" s="54" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="59"/>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="50" t="s">
+      <c r="G10" s="54"/>
+      <c r="H10" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="51"/>
-      <c r="J10" s="49" t="s">
+      <c r="I10" s="56"/>
+      <c r="J10" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49" t="s">
+      <c r="K10" s="54"/>
+      <c r="L10" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="49"/>
+      <c r="M10" s="54"/>
     </row>
     <row r="11" spans="1:13" ht="42.75" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="H10:I10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:M4"/>
@@ -43660,6 +43655,11 @@
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43926,17 +43926,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF366092"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:J11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
-    <col min="2" max="10" width="12" style="1" customWidth="1"/>
+    <col min="2" max="10" width="12.85546875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -44093,7 +44094,7 @@
     <mergeCell ref="A2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="96" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -44102,11 +44103,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF366092"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -44166,7 +44168,7 @@
     <mergeCell ref="B4:J4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="48" orientation="landscape" r:id="rId1"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>

--- a/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
+++ b/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="33" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <sheet name="SOR Overlap With DHMSM" sheetId="28" r:id="rId7"/>
     <sheet name="DHMSM Data Requirements" sheetId="26" r:id="rId8"/>
     <sheet name="System Interfaces" sheetId="27" r:id="rId9"/>
+    <sheet name="Summary Charts" sheetId="34" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
@@ -34,6 +34,7 @@
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
     <definedName name="Additional">[1]Data!$D$3:$D$15</definedName>
@@ -111,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="85">
   <si>
     <t>Garrison / Theater</t>
   </si>
@@ -224,6 +225,11 @@
     <t>Report Overview</t>
   </si>
   <si>
+    <t>The Office of Transition Management (OTM) Transition Application Planning (TAP) coordinated with the Defense Health Clinical Systems (DHCS) and Defense Health Services Systems (DHSS) program offices, in addition to the tri-Services, to collect technical and functional data regarding their information systems, in order to fully characterize the legacy DHA IM/IT portfolio. 
+Using this data, OTM provided detailed analysis regarding each legacy system to the Functional Advisory Council (FAC), which made transition decisions that define if each system would be replaced by the future-state EHR (high probability systems) or would endure to support the future-state EHR (low probability systems).
+This report focuses on low probability systems that will require integration with the future-state EHR and provides analytical insights that specify the activities required for the system highlighted in this report to transition to the future state environment.</t>
+  </si>
+  <si>
     <t>System Modernization Timeline</t>
   </si>
   <si>
@@ -306,7 +312,22 @@
     <t>SOR Overlap with DHMSM</t>
   </si>
   <si>
+    <t xml:space="preserve"> - In 2011, MHS leadership initiated the DoD Health IT (HIT) Transition Application Plan (TAP) project. The project is designed to yield a comprehensive migration strategy with which to effectively and efficiently transition existing MHS program, projects and initiatives (PPI) to the future-state electronic health record (EHR) environment. The plan will synchronize the MHS’ technical, functional, infrastructure, and financial management processes of transitioning clinical and business functionalities to the future-state EHR.
+  - A March 14, 2014 memorandum signed by the by the Assistant Secretary of Defense for Health Affairs (ASD/HA) directed all DHA and Services stakeholders to provide information required to make transition decisions for the legacy systems in their portfolios. The TAP team, working directly with the Defense Health Clinical Systems (DHCS) and Defense Health Services (DHSS) Program Executive Offices, in addition to the tri-Services, collected functional, technical, and program management data for all systems identified in connection with the ASD/HA memorandum.
+- Using data provided by the DHA PEOs and Services to characterize the legacy enterprise, the TAP team provided transition recommendations for all identified legacy systems to the Functional Advisory Council (FAC). Based upon the clinical and business capabilities expected to be delviered by the future-state EHR solution and the analysis of the legacy systems provided by OTM, the FAC made decisions on how to transition the legacy systems in the DHA and Services portfolios to the future-state environment. The legacy systems were categorized as either having a low or high probability of being replaced by the future-state EHR solution.
+- This report focuses on the analysis of low probability systems that will require integration (LPI) with the future-state EHR. These systems will endure into the future and need to be modernized in order to maintain compliance with relevant DHA standards and ensure interoperability with the future-state EHR.</t>
+  </si>
+  <si>
     <t>Contents</t>
+  </si>
+  <si>
+    <t>This report details the characteristics and modernization activities requried to transition the LPI system to the future-state environment. The report provides the following information and analysis regarding the LPI system:
+1. System Overview
+2. System Hardware and Software Lifecycles
+3. Modernization Timeline
+4. System Data Requirements and Data Provenance
+5. EHR Data Requirements
+6. System Interface Requirements</t>
   </si>
   <si>
     <t>NA</t>
@@ -327,24 +348,58 @@
     <t xml:space="preserve">This section displays @SYSTEM@ that are source of record for the data objects that DHMSM capabilities consume. </t>
   </si>
   <si>
-    <t xml:space="preserve"> - In 2011, MHS leadership initiated the DoD Health IT (HIT) Transition Application Plan (TAP) project. The project is designed to yield a comprehensive migration strategy with which to effectively and efficiently transition existing MHS program, projects and initiatives (PPI) to the future-state electronic health record (EHR) environment. The plan will synchronize the MHS’ technical, functional, infrastructure, and financial management processes of transitioning clinical and business functionalities to the future-state EHR.
-  - A March 14, 2014 memorandum signed by the by the Assistant Secretary of Defense for Health Affairs (ASD/HA) directed all DHA and Services stakeholders to provide information required to make transition decisions for the legacy systems in their portfolios. The TAP team, working directly with the Defense Health Clinical Systems (DHCS) and Defense Health Services (DHSS) Program Executive Offices, in addition to the tri-Services, collected functional, technical, and program management data for all systems identified in connection with the ASD/HA memorandum.
-- Using data provided by the DHA PEOs and Services to characterize the legacy enterprise, the TAP team provided transition recommendations for all identified legacy systems to the Functional Advisory Council (FAC). Based upon the clinical and business capabilities expected to be delviered by the future-state EHR solution and the analysis of the legacy systems provided by OTM, the FAC made decisions on how to transition the legacy systems in the DHA and Services portfolios to the future-state environment. The legacy systems were categorized as either having a low or high probability of being replaced by the future-state EHR solution.
-- This report focuses on the analysis of low probability systems that will not require integration (LPNI) with the future-state EHR. These systems will endure into the future and need to be modernized in order to maintain compliance with relevant DHA standards and ensure interoperability with the future-state EHR.</t>
+    <t>System Maturity</t>
   </si>
   <si>
-    <t>This report details the characteristics and modernization activities requried to transition the LPNI system to the future-state environment. The report provides the following information and analysis regarding the LPNI system:
-1. System Overview
-2. System Hardware and Software Lifecycles
-3. Modernization Timeline
-4. System Data Requirements and Data Provenance
-5. EHR Data Requirements
-6. System Interface Requirements</t>
+    <t>Software Maturity</t>
   </si>
   <si>
-    <t>The Office of Transition Management (OTM) Transition Application Planning (TAP) coordinated with the Defense Health Clinical Systems (DHCS) and Defense Health Services Systems (DHSS) program offices, in addition to the tri-Services, to collect technical and functional data regarding their information systems, in order to fully characterize the legacy DHA IM/IT portfolio. 
-Using this data, OTM provided detailed analysis regarding each legacy system to the Functional Advisory Council (FAC), which made transition decisions that define if each system would be replaced by the future-state EHR (high probability systems) or would endure to support the future-state EHR (low probability systems).
-This report focuses on low probability systems that will not require integration with the future-state EHR and provides analytical insights that specify the activities required for the system highlighted in this report to transition to the future state environment.</t>
+    <t>Hardware Maturity</t>
+  </si>
+  <si>
+    <t>Software Lifecycle</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Retired (Not Supported)</t>
+  </si>
+  <si>
+    <t>Supported</t>
+  </si>
+  <si>
+    <t>GA (Generally Available)</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Hardware Lifecycle</t>
+  </si>
+  <si>
+    <t>Interfaces Summary</t>
+  </si>
+  <si>
+    <t>Required Direct Interfaces with DHMSM - Legacy Provider</t>
+  </si>
+  <si>
+    <t>Required Direct Interfaces with DHMSM - Legacy Consumer</t>
+  </si>
+  <si>
+    <t>Existing Legacy Interfaces Required to Endure</t>
+  </si>
+  <si>
+    <t>Existing Legacy Interfaces Recommended for Removal</t>
+  </si>
+  <si>
+    <t>Proposed Future Interfaces with DHMSM - Legacy Provider</t>
+  </si>
+  <si>
+    <t>The following graph illustrates the number of interfaces @SYSTEM@ will have in the future state based upon the business rules established for each interface type.</t>
+  </si>
+  <si>
+    <t>The following graphs provide an overview of the hardware and software maturity for @SYSTEM@, illustrating the number of software and hardware products in each lifecycle phase.</t>
   </si>
 </sst>
 </file>
@@ -355,7 +410,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +579,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -569,7 +631,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -693,6 +755,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -756,7 +847,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -845,6 +936,19 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="48" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="48" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="48" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="48" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="48" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="48" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="48" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="48" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -869,11 +973,32 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="48" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -884,14 +1009,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -907,6 +1032,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1062,6 +1193,798 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Summary Charts'!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Retired (Not Supported)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Supported</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GA (Generally Available)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TBD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary Charts'!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Summary Charts'!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Retired (Not Supported)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Supported</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GA (Generally Available)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TBD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary Charts'!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="457379368"/>
+        <c:axId val="457379760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="457379368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="457379760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="457379760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="457379368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Summary Charts'!$A$12:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Retired (Not Supported)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Supported</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GA (Generally Available)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TBD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary Charts'!$B$12:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="457380936"/>
+        <c:axId val="457381328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="457380936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="457381328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="457381328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="457380936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary Charts'!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Required Direct Interfaces with DHMSM - Legacy Provider</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Summary Charts'!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary Charts'!$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary Charts'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Required Direct Interfaces with DHMSM - Legacy Consumer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Summary Charts'!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary Charts'!$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary Charts'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Existing Legacy Interfaces Required to Endure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Summary Charts'!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary Charts'!$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary Charts'!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Existing Legacy Interfaces Recommended for Removal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Summary Charts'!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary Charts'!$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary Charts'!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed Future Interfaces with DHMSM - Legacy Provider</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Summary Charts'!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary Charts'!$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="414560496"/>
+        <c:axId val="414560104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="414560496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="414560104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="414560104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="414560496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>107155</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>134541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>488157</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>20241</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>134540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>20240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>59532</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>63102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -43288,8 +44211,8 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -43302,87 +44225,87 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32.25" customHeight="1">
-      <c r="A2" s="38" t="s">
-        <v>55</v>
+      <c r="A2" s="51" t="s">
+        <v>56</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="281.25" customHeight="1">
-      <c r="A4" s="40" t="s">
-        <v>64</v>
+      <c r="A4" s="53" t="s">
+        <v>58</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="55"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="32" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A6" s="38" t="s">
-        <v>57</v>
+      <c r="A6" s="51" t="s">
+        <v>59</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="134.25" customHeight="1">
-      <c r="A8" s="43" t="s">
-        <v>65</v>
+      <c r="A8" s="56" t="s">
+        <v>60</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="58"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="33"/>
@@ -43456,16 +44379,183 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="38"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="40">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF366092"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43484,22 +44574,22 @@
     <row r="1" spans="1:13" ht="7.5" customHeight="1"/>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="250.5" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
-        <v>66</v>
+      <c r="C2" s="80"/>
+      <c r="D2" s="68" t="s">
+        <v>37</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -43518,20 +44608,20 @@
     </row>
     <row r="4" spans="1:13" ht="32.25" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:13" ht="7.5" customHeight="1">
       <c r="A5" s="5"/>
@@ -43557,22 +44647,22 @@
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="168.75" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48" t="s">
-        <v>58</v>
+      <c r="C7" s="80"/>
+      <c r="D7" s="68" t="s">
+        <v>61</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="50"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="70"/>
     </row>
     <row r="8" spans="1:13" ht="8.25" customHeight="1">
       <c r="A8" s="5"/>
@@ -43583,66 +44673,595 @@
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="53"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="61"/>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="28.5" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54" t="s">
+      <c r="C10" s="74"/>
+      <c r="D10" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="55" t="s">
+      <c r="E10" s="81"/>
+      <c r="F10" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="54" t="s">
+      <c r="G10" s="74"/>
+      <c r="H10" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54" t="s">
+      <c r="I10" s="76"/>
+      <c r="J10" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="54"/>
+      <c r="M10" s="74"/>
     </row>
     <row r="11" spans="1:13" ht="42.75" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="58"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="78"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.5">
+      <c r="B13" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="61"/>
+    </row>
+    <row r="14" spans="1:13" ht="34.5" customHeight="1">
+      <c r="B14" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="67"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="73"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="44"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="47"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="47"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="47"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="47"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="47"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="47"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="47"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="47"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="47"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="47"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="47"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="47"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="47"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="47"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="50"/>
+    </row>
+    <row r="33" spans="2:13" ht="16.5">
+      <c r="B33" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="61"/>
+    </row>
+    <row r="34" spans="2:13" ht="33.75" customHeight="1">
+      <c r="B34" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="64"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="44"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="47"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="47"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="47"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="47"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="47"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="47"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="45"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="47"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="47"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="45"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="47"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="45"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="47"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="45"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="47"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="45"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="47"/>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="47"/>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="45"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="47"/>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="48"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B11:C11"/>
+  <mergeCells count="24">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="D2:M2"/>
@@ -43656,14 +45275,22 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="B14:M14"/>
     <mergeCell ref="D7:M7"/>
     <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:M15"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -43675,7 +45302,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -43685,75 +45312,75 @@
     <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A5" s="67" t="s">
-        <v>59</v>
+      <c r="A5" s="89" t="s">
+        <v>62</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="69"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="61" t="s">
-        <v>52</v>
+      <c r="B7" s="87"/>
+      <c r="C7" s="83" t="s">
+        <v>53</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="63"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="85"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="25.5">
@@ -43761,7 +45388,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>28</v>
@@ -43790,7 +45417,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -43815,7 +45442,7 @@
   <dimension ref="A2:G10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -43825,63 +45452,63 @@
     <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="94"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A5" s="67" t="s">
-        <v>60</v>
+      <c r="A5" s="89" t="s">
+        <v>63</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="69"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="73" t="s">
-        <v>53</v>
+      <c r="B7" s="88"/>
+      <c r="C7" s="95" t="s">
+        <v>54</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
     </row>
     <row r="9" spans="1:7" ht="25.5">
       <c r="A9" s="35" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>28</v>
@@ -43930,30 +45557,30 @@
   </sheetPr>
   <dimension ref="A2:J11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
-    <col min="2" max="10" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="10" width="15" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77" t="s">
-        <v>37</v>
+      <c r="A2" s="99" t="s">
+        <v>38</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
     </row>
     <row r="3" spans="1:10" ht="18">
       <c r="A3" s="12"/>
@@ -43963,17 +45590,17 @@
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="74" t="s">
-        <v>61</v>
+      <c r="B4" s="96" t="s">
+        <v>64</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="76"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="98"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2"/>
@@ -44005,12 +45632,12 @@
         <v>2022</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="41.25" customHeight="1">
       <c r="A7" s="35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="24">
         <v>0</v>
@@ -44042,7 +45669,7 @@
     </row>
     <row r="8" spans="1:10" ht="41.25" customHeight="1">
       <c r="A8" s="35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="24">
         <v>0</v>
@@ -44074,7 +45701,7 @@
     </row>
     <row r="10" spans="1:10" ht="41.25" customHeight="1">
       <c r="A10" s="35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="25">
         <v>0</v>
@@ -44082,7 +45709,7 @@
     </row>
     <row r="11" spans="1:10" ht="41.25" customHeight="1">
       <c r="A11" s="35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="25">
         <v>0</v>
@@ -44094,7 +45721,7 @@
     <mergeCell ref="A2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="96" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="75" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -44107,8 +45734,8 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -44121,41 +45748,41 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1"/>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
     </row>
     <row r="4" spans="1:10" ht="53.25" customHeight="1">
       <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="78" t="s">
-        <v>62</v>
+      <c r="B4" s="100" t="s">
+        <v>65</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="80"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="102"/>
     </row>
     <row r="6" spans="1:10" ht="39.75" customHeight="1">
       <c r="A6" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -44192,10 +45819,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="18">
-      <c r="A2" s="77" t="s">
-        <v>56</v>
+      <c r="A2" s="99" t="s">
+        <v>57</v>
       </c>
-      <c r="B2" s="77"/>
+      <c r="B2" s="99"/>
     </row>
     <row r="3" spans="1:2" ht="18">
       <c r="A3" s="12"/>
@@ -44255,11 +45882,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="18">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
     </row>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="12"/>
@@ -44270,10 +45897,10 @@
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="74" t="s">
-        <v>63</v>
+      <c r="B4" s="96" t="s">
+        <v>66</v>
       </c>
-      <c r="C4" s="76"/>
+      <c r="C4" s="98"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2"/>
@@ -44288,7 +45915,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -44314,7 +45941,7 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -44338,40 +45965,40 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1"/>
     <row r="2" spans="1:13" ht="18" customHeight="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84" t="s">
-        <v>41</v>
+      <c r="B4" s="104"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="106" t="s">
+        <v>42</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="86"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="108"/>
     </row>
     <row r="6" spans="1:13" ht="39.75" customHeight="1">
       <c r="A6" s="35" t="s">
@@ -44408,10 +46035,10 @@
         <v>15</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:13">

--- a/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
+++ b/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834"/>
+    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="33" r:id="rId1"/>
@@ -342,9 +342,6 @@
     <t>This section displays the cost to upgrade software and hardware that @SYSTEM@ uses as the modules reach end-of-life.</t>
   </si>
   <si>
-    <t>This section displays the data objects that @SYSTEM@ is a source of record of and the numbers of systems which DMHRSi sends the data to. Additionally, this section displays the data objects that @SYSTEM@ consumes, the other systems that are a source of the data object and the number of low probability systems they provide data for.</t>
-  </si>
-  <si>
     <t xml:space="preserve">This section displays @SYSTEM@ that are source of record for the data objects that DHMSM capabilities consume. </t>
   </si>
   <si>
@@ -399,7 +396,10 @@
     <t>The following graph illustrates the number of interfaces @SYSTEM@ will have in the future state based upon the business rules established for each interface type.</t>
   </si>
   <si>
-    <t>The following graphs provide an overview of the hardware and software maturity for @SYSTEM@, illustrating the number of software and hardware products in each lifecycle phase.</t>
+    <t>The following graphs provide an overview of the hardware and software maturity for @SYSTEM@, illustrating the number of software and hardware products in each lifecycle phase  at the start of IOC (expected @DATE@).</t>
+  </si>
+  <si>
+    <t>This section displays the data objects that @SYSTEM@ is a source of record of and the numbers of systems which @SYSTEM@ sends the data to. Additionally, this section displays the data objects that @SYSTEM@ consumes, the other systems that are a source of the data object and the number of low probability systems they provide data for.</t>
   </si>
 </sst>
 </file>
@@ -1397,11 +1397,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="457379368"/>
-        <c:axId val="457379760"/>
+        <c:axId val="417183784"/>
+        <c:axId val="417183392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="457379368"/>
+        <c:axId val="417183784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,7 +1411,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="457379760"/>
+        <c:crossAx val="417183392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1419,7 +1419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="457379760"/>
+        <c:axId val="417183392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1430,7 +1430,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="457379368"/>
+        <c:crossAx val="417183784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1563,11 +1563,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="457380936"/>
-        <c:axId val="457381328"/>
+        <c:axId val="441473776"/>
+        <c:axId val="441474168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="457380936"/>
+        <c:axId val="441473776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1577,7 +1577,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="457381328"/>
+        <c:crossAx val="441474168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1585,7 +1585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="457381328"/>
+        <c:axId val="441474168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1596,7 +1596,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="457380936"/>
+        <c:crossAx val="441473776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1838,11 +1838,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="414560496"/>
-        <c:axId val="414560104"/>
+        <c:axId val="441474952"/>
+        <c:axId val="441475344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="414560496"/>
+        <c:axId val="441474952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1852,7 +1852,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414560104"/>
+        <c:crossAx val="441475344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1860,7 +1860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="414560104"/>
+        <c:axId val="441475344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1871,7 +1871,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414560496"/>
+        <c:crossAx val="441474952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1927,7 +1927,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>83344</xdr:colOff>
+      <xdr:colOff>35718</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>134540</xdr:rowOff>
     </xdr:from>
@@ -44211,7 +44211,7 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
@@ -44386,8 +44386,8 @@
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -44398,21 +44398,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="38"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="40">
         <v>0</v>
@@ -44420,7 +44420,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="40">
         <v>0</v>
@@ -44428,7 +44428,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="40">
         <v>0</v>
@@ -44436,7 +44436,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="40">
         <v>0</v>
@@ -44444,20 +44444,20 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="40">
         <v>0</v>
@@ -44465,7 +44465,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="40">
         <v>0</v>
@@ -44473,7 +44473,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="40">
         <v>0</v>
@@ -44481,7 +44481,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="40">
         <v>0</v>
@@ -44489,7 +44489,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -44497,12 +44497,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="40">
         <v>0</v>
@@ -44510,7 +44510,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="40">
         <v>0</v>
@@ -44518,7 +44518,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="40">
         <v>0</v>
@@ -44526,7 +44526,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="40">
         <v>0</v>
@@ -44534,7 +44534,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="40">
         <v>0</v>
@@ -44554,8 +44554,8 @@
   </sheetPr>
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:M34"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44565,8 +44565,9 @@
     <col min="3" max="3" width="6.7109375" style="6" customWidth="1"/>
     <col min="4" max="5" width="8" style="6" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9" style="6" customWidth="1"/>
-    <col min="8" max="10" width="7.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="6" customWidth="1"/>
+    <col min="9" max="10" width="7.5703125" style="6" customWidth="1"/>
     <col min="11" max="13" width="7.42578125" style="6" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="6"/>
   </cols>
@@ -44645,7 +44646,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" ht="168.75" customHeight="1">
+    <row r="7" spans="1:13" s="4" customFormat="1" ht="375" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="79" t="s">
         <v>30</v>
@@ -44732,7 +44733,7 @@
     </row>
     <row r="13" spans="1:13" ht="16.5">
       <c r="B13" s="59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="60"/>
       <c r="D13" s="60"/>
@@ -44746,9 +44747,9 @@
       <c r="L13" s="60"/>
       <c r="M13" s="61"/>
     </row>
-    <row r="14" spans="1:13" ht="34.5" customHeight="1">
+    <row r="14" spans="1:13" ht="51" customHeight="1">
       <c r="B14" s="65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="66"/>
       <c r="D14" s="66"/>
@@ -44764,7 +44765,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="B15" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="72"/>
       <c r="D15" s="72"/>
@@ -44772,7 +44773,7 @@
       <c r="F15" s="72"/>
       <c r="G15" s="73"/>
       <c r="H15" s="71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I15" s="72"/>
       <c r="J15" s="72"/>
@@ -45006,7 +45007,7 @@
     </row>
     <row r="33" spans="2:13" ht="16.5">
       <c r="B33" s="59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="60"/>
       <c r="D33" s="60"/>
@@ -45022,7 +45023,7 @@
     </row>
     <row r="34" spans="2:13" ht="33.75" customHeight="1">
       <c r="B34" s="62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="63"/>
       <c r="D34" s="63"/>
@@ -45302,7 +45303,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -45735,7 +45736,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -45766,7 +45767,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="100" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C4" s="101"/>
       <c r="D4" s="101"/>
@@ -45898,7 +45899,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="96" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="98"/>
     </row>

--- a/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
+++ b/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="33" r:id="rId1"/>
@@ -973,6 +973,33 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1000,15 +1027,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1018,28 +1036,10 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1397,11 +1397,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="417183784"/>
-        <c:axId val="417183392"/>
+        <c:axId val="414054704"/>
+        <c:axId val="414055096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="417183784"/>
+        <c:axId val="414054704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,7 +1411,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="417183392"/>
+        <c:crossAx val="414055096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1419,7 +1419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="417183392"/>
+        <c:axId val="414055096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1430,7 +1430,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="417183784"/>
+        <c:crossAx val="414054704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1563,11 +1563,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="441473776"/>
-        <c:axId val="441474168"/>
+        <c:axId val="414055880"/>
+        <c:axId val="417087120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="441473776"/>
+        <c:axId val="414055880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1577,7 +1577,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="441474168"/>
+        <c:crossAx val="417087120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1585,7 +1585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="441474168"/>
+        <c:axId val="417087120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1596,7 +1596,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="441473776"/>
+        <c:crossAx val="414055880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1838,11 +1838,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="441474952"/>
-        <c:axId val="441475344"/>
+        <c:axId val="417089472"/>
+        <c:axId val="417089864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="441474952"/>
+        <c:axId val="417089472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1852,7 +1852,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="441475344"/>
+        <c:crossAx val="417089864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1860,7 +1860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="441475344"/>
+        <c:axId val="417089864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1871,7 +1871,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="441474952"/>
+        <c:crossAx val="417089472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -44211,7 +44211,7 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
@@ -44386,7 +44386,7 @@
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -44575,22 +44575,22 @@
     <row r="1" spans="1:13" ht="7.5" customHeight="1"/>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="250.5" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="68" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -44648,22 +44648,22 @@
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="375" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="68" t="s">
+      <c r="C7" s="60"/>
+      <c r="D7" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="70"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="63"/>
     </row>
     <row r="8" spans="1:13" ht="8.25" customHeight="1">
       <c r="A8" s="5"/>
@@ -44674,112 +44674,112 @@
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="61"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="70"/>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="28.5" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74" t="s">
+      <c r="C10" s="64"/>
+      <c r="D10" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="81"/>
-      <c r="F10" s="74" t="s">
+      <c r="E10" s="67"/>
+      <c r="F10" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="74"/>
-      <c r="H10" s="75" t="s">
+      <c r="G10" s="64"/>
+      <c r="H10" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="76"/>
-      <c r="J10" s="74" t="s">
+      <c r="I10" s="81"/>
+      <c r="J10" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74" t="s">
+      <c r="K10" s="64"/>
+      <c r="L10" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="74"/>
+      <c r="M10" s="64"/>
     </row>
     <row r="11" spans="1:13" ht="42.75" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="78"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="66"/>
     </row>
     <row r="13" spans="1:13" ht="16.5">
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="61"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="70"/>
     </row>
     <row r="14" spans="1:13" ht="51" customHeight="1">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="67"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="76"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="71" t="s">
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="73"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="79"/>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="42"/>
@@ -45006,36 +45006,36 @@
       <c r="M31" s="50"/>
     </row>
     <row r="33" spans="2:13" ht="16.5">
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="61"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="70"/>
     </row>
     <row r="34" spans="2:13" ht="33.75" customHeight="1">
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="64"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="73"/>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="42"/>
@@ -45263,6 +45263,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="D2:M2"/>
@@ -45276,17 +45287,6 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
+++ b/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834"/>
+    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="33" r:id="rId1"/>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>Protocol</t>
-  </si>
-  <si>
-    <t>Comment</t>
   </si>
   <si>
     <t>Software Lifecycles</t>
@@ -400,6 +397,9 @@
   </si>
   <si>
     <t>This section displays the data objects that @SYSTEM@ is a source of record of and the numbers of systems which @SYSTEM@ sends the data to. Additionally, this section displays the data objects that @SYSTEM@ consumes, the other systems that are a source of the data object and the number of low probability systems they provide data for.</t>
+  </si>
+  <si>
+    <t>Recommendation</t>
   </si>
 </sst>
 </file>
@@ -973,33 +973,6 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1027,6 +1000,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1036,10 +1018,28 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1397,11 +1397,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="414054704"/>
-        <c:axId val="414055096"/>
+        <c:axId val="409964272"/>
+        <c:axId val="409964664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="414054704"/>
+        <c:axId val="409964272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,7 +1411,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414055096"/>
+        <c:crossAx val="409964664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1419,7 +1419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="414055096"/>
+        <c:axId val="409964664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1430,7 +1430,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414054704"/>
+        <c:crossAx val="409964272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1563,11 +1563,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="414055880"/>
-        <c:axId val="417087120"/>
+        <c:axId val="409965448"/>
+        <c:axId val="409965840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="414055880"/>
+        <c:axId val="409965448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1577,7 +1577,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="417087120"/>
+        <c:crossAx val="409965840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1585,7 +1585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="417087120"/>
+        <c:axId val="409965840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1596,7 +1596,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414055880"/>
+        <c:crossAx val="409965448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1838,11 +1838,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="417089472"/>
-        <c:axId val="417089864"/>
+        <c:axId val="409968192"/>
+        <c:axId val="409968584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="417089472"/>
+        <c:axId val="409968192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1852,7 +1852,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="417089864"/>
+        <c:crossAx val="409968584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1860,7 +1860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="417089864"/>
+        <c:axId val="409968584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1871,7 +1871,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="417089472"/>
+        <c:crossAx val="409968192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -44211,8 +44211,8 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L4"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -44225,12 +44225,12 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32.25" customHeight="1">
       <c r="A2" s="51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="52"/>
       <c r="C2" s="52"/>
@@ -44246,12 +44246,12 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="281.25" customHeight="1">
       <c r="A4" s="53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="54"/>
       <c r="C4" s="54"/>
@@ -44267,12 +44267,12 @@
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="32" customFormat="1" ht="29.25" customHeight="1">
       <c r="A6" s="51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="52"/>
       <c r="C6" s="52"/>
@@ -44288,12 +44288,12 @@
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="134.25" customHeight="1">
       <c r="A8" s="56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="57"/>
       <c r="C8" s="57"/>
@@ -44398,21 +44398,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="38"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="40">
         <v>0</v>
@@ -44420,7 +44420,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="40">
         <v>0</v>
@@ -44428,7 +44428,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="40">
         <v>0</v>
@@ -44436,7 +44436,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="40">
         <v>0</v>
@@ -44444,20 +44444,20 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="40">
         <v>0</v>
@@ -44465,7 +44465,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="40">
         <v>0</v>
@@ -44473,7 +44473,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="40">
         <v>0</v>
@@ -44481,7 +44481,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="40">
         <v>0</v>
@@ -44489,7 +44489,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -44497,12 +44497,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="40">
         <v>0</v>
@@ -44510,7 +44510,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="40">
         <v>0</v>
@@ -44518,7 +44518,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" s="40">
         <v>0</v>
@@ -44526,7 +44526,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B23" s="40">
         <v>0</v>
@@ -44534,7 +44534,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" s="40">
         <v>0</v>
@@ -44575,22 +44575,22 @@
     <row r="1" spans="1:13" ht="7.5" customHeight="1"/>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="250.5" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -44610,7 +44610,7 @@
     <row r="4" spans="1:13" ht="32.25" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
@@ -44648,22 +44648,22 @@
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="375" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="59" t="s">
-        <v>30</v>
+      <c r="B7" s="79" t="s">
+        <v>29</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61" t="s">
-        <v>61</v>
+      <c r="C7" s="80"/>
+      <c r="D7" s="68" t="s">
+        <v>60</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="63"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="70"/>
     </row>
     <row r="8" spans="1:13" ht="8.25" customHeight="1">
       <c r="A8" s="5"/>
@@ -44674,112 +44674,112 @@
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="70"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="61"/>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="28.5" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64" t="s">
+      <c r="C10" s="74"/>
+      <c r="D10" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="64" t="s">
+      <c r="E10" s="81"/>
+      <c r="F10" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="74"/>
+      <c r="H10" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="64"/>
-      <c r="H10" s="80" t="s">
+      <c r="I10" s="76"/>
+      <c r="J10" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="81"/>
-      <c r="J10" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64" t="s">
+      <c r="K10" s="74"/>
+      <c r="L10" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="64"/>
+      <c r="M10" s="74"/>
     </row>
     <row r="11" spans="1:13" ht="42.75" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="66"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="78"/>
     </row>
     <row r="13" spans="1:13" ht="16.5">
-      <c r="B13" s="68" t="s">
-        <v>66</v>
+      <c r="B13" s="59" t="s">
+        <v>65</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="70"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="61"/>
     </row>
     <row r="14" spans="1:13" ht="51" customHeight="1">
-      <c r="B14" s="74" t="s">
-        <v>83</v>
+      <c r="B14" s="65" t="s">
+        <v>82</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="76"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="67"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="77" t="s">
-        <v>69</v>
+      <c r="B15" s="71" t="s">
+        <v>68</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="77" t="s">
-        <v>75</v>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="71" t="s">
+        <v>74</v>
       </c>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="79"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="73"/>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="42"/>
@@ -45006,36 +45006,36 @@
       <c r="M31" s="50"/>
     </row>
     <row r="33" spans="2:13" ht="16.5">
-      <c r="B33" s="68" t="s">
-        <v>76</v>
+      <c r="B33" s="59" t="s">
+        <v>75</v>
       </c>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="70"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="61"/>
     </row>
     <row r="34" spans="2:13" ht="33.75" customHeight="1">
-      <c r="B34" s="71" t="s">
-        <v>82</v>
+      <c r="B34" s="62" t="s">
+        <v>81</v>
       </c>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="73"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="64"/>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="42"/>
@@ -45263,17 +45263,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="D2:M2"/>
@@ -45287,6 +45276,17 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45320,12 +45320,12 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="82"/>
       <c r="C2" s="82"/>
@@ -45336,7 +45336,7 @@
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="88"/>
       <c r="C3" s="88"/>
@@ -45347,12 +45347,12 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1">
       <c r="A5" s="89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="90"/>
       <c r="C5" s="90"/>
@@ -45363,16 +45363,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1">
       <c r="A7" s="86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="87"/>
       <c r="C7" s="83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="84"/>
       <c r="E7" s="84"/>
@@ -45381,30 +45381,30 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="25.5">
       <c r="A9" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="35" t="s">
+      <c r="E9" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="F9" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="35" t="s">
-        <v>20</v>
-      </c>
       <c r="G9" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -45418,7 +45418,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -45460,7 +45460,7 @@
   <sheetData>
     <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="93"/>
       <c r="C2" s="93"/>
@@ -45482,7 +45482,7 @@
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1">
       <c r="A5" s="89" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="90"/>
       <c r="C5" s="90"/>
@@ -45493,11 +45493,11 @@
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1">
       <c r="A7" s="88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="88"/>
       <c r="C7" s="95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="95"/>
       <c r="E7" s="95"/>
@@ -45506,25 +45506,25 @@
     </row>
     <row r="9" spans="1:7" ht="25.5">
       <c r="A9" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="F9" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="35" t="s">
-        <v>20</v>
-      </c>
       <c r="G9" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -45571,7 +45571,7 @@
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="99"/>
       <c r="C2" s="99"/>
@@ -45592,7 +45592,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="96" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="97"/>
       <c r="D4" s="97"/>
@@ -45633,12 +45633,12 @@
         <v>2022</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="41.25" customHeight="1">
       <c r="A7" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="24">
         <v>0</v>
@@ -45670,7 +45670,7 @@
     </row>
     <row r="8" spans="1:10" ht="41.25" customHeight="1">
       <c r="A8" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="24">
         <v>0</v>
@@ -45702,7 +45702,7 @@
     </row>
     <row r="10" spans="1:10" ht="41.25" customHeight="1">
       <c r="A10" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="25">
         <v>0</v>
@@ -45710,7 +45710,7 @@
     </row>
     <row r="11" spans="1:10" ht="41.25" customHeight="1">
       <c r="A11" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="25">
         <v>0</v>
@@ -45750,7 +45750,7 @@
     <row r="1" spans="1:10" ht="18" customHeight="1"/>
     <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="99"/>
       <c r="C2" s="99"/>
@@ -45767,7 +45767,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="100" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="101"/>
       <c r="D4" s="101"/>
@@ -45783,7 +45783,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -45821,7 +45821,7 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18">
       <c r="A2" s="99" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="99"/>
     </row>
@@ -45834,7 +45834,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -45884,7 +45884,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18">
       <c r="A2" s="99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="99"/>
       <c r="C2" s="99"/>
@@ -45899,7 +45899,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="96" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="98"/>
     </row>
@@ -45916,7 +45916,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -45942,8 +45942,8 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -45967,7 +45967,7 @@
     <row r="1" spans="1:13" ht="18" customHeight="1"/>
     <row r="2" spans="1:13" ht="18" customHeight="1">
       <c r="A2" s="99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="99"/>
       <c r="C2" s="99"/>
@@ -45989,7 +45989,7 @@
       <c r="B4" s="104"/>
       <c r="C4" s="105"/>
       <c r="D4" s="106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="107"/>
       <c r="F4" s="107"/>
@@ -46009,7 +46009,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="35" t="s">
         <v>11</v>
@@ -46027,19 +46027,19 @@
         <v>14</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="35" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -46059,7 +46059,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="K8" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>

--- a/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
+++ b/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="33" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Software Lifecycles'!$9:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'SOR Overlap With DHMSM'!$6:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'System Data'!$6:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="8">'System Interfaces'!$6:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">'System Interfaces'!$9:$9</definedName>
     <definedName name="Priority3">[6]Data1!$B$4:$B$6</definedName>
     <definedName name="ProcContractMonths">'[2]New Timeline'!$A$22</definedName>
     <definedName name="RangeBLU">[7]BLUBackEnd!$G$5:$G$49</definedName>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
   <si>
     <t>Garrison / Theater</t>
   </si>
@@ -239,9 +239,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>This section displays the current @SYSTEM@ interfaces and how they are affected by DHMSM deployment.</t>
-  </si>
-  <si>
     <t>Software License Budget</t>
   </si>
   <si>
@@ -309,22 +306,7 @@
     <t>SOR Overlap with DHMSM</t>
   </si>
   <si>
-    <t xml:space="preserve"> - In 2011, MHS leadership initiated the DoD Health IT (HIT) Transition Application Plan (TAP) project. The project is designed to yield a comprehensive migration strategy with which to effectively and efficiently transition existing MHS program, projects and initiatives (PPI) to the future-state electronic health record (EHR) environment. The plan will synchronize the MHS’ technical, functional, infrastructure, and financial management processes of transitioning clinical and business functionalities to the future-state EHR.
-  - A March 14, 2014 memorandum signed by the by the Assistant Secretary of Defense for Health Affairs (ASD/HA) directed all DHA and Services stakeholders to provide information required to make transition decisions for the legacy systems in their portfolios. The TAP team, working directly with the Defense Health Clinical Systems (DHCS) and Defense Health Services (DHSS) Program Executive Offices, in addition to the tri-Services, collected functional, technical, and program management data for all systems identified in connection with the ASD/HA memorandum.
-- Using data provided by the DHA PEOs and Services to characterize the legacy enterprise, the TAP team provided transition recommendations for all identified legacy systems to the Functional Advisory Council (FAC). Based upon the clinical and business capabilities expected to be delviered by the future-state EHR solution and the analysis of the legacy systems provided by OTM, the FAC made decisions on how to transition the legacy systems in the DHA and Services portfolios to the future-state environment. The legacy systems were categorized as either having a low or high probability of being replaced by the future-state EHR solution.
-- This report focuses on the analysis of low probability systems that will require integration (LPI) with the future-state EHR. These systems will endure into the future and need to be modernized in order to maintain compliance with relevant DHA standards and ensure interoperability with the future-state EHR.</t>
-  </si>
-  <si>
     <t>Contents</t>
-  </si>
-  <si>
-    <t>This report details the characteristics and modernization activities requried to transition the LPI system to the future-state environment. The report provides the following information and analysis regarding the LPI system:
-1. System Overview
-2. System Hardware and Software Lifecycles
-3. Modernization Timeline
-4. System Data Requirements and Data Provenance
-5. EHR Data Requirements
-6. System Interface Requirements</t>
   </si>
   <si>
     <t>NA</t>
@@ -337,9 +319,6 @@
   </si>
   <si>
     <t>This section displays the cost to upgrade software and hardware that @SYSTEM@ uses as the modules reach end-of-life.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This section displays @SYSTEM@ that are source of record for the data objects that DHMSM capabilities consume. </t>
   </si>
   <si>
     <t>System Maturity</t>
@@ -401,6 +380,42 @@
   <si>
     <t>Recommendation</t>
   </si>
+  <si>
+    <t xml:space="preserve"> - In 2011, MHS leadership initiated the DoD Health IT (HIT) Transition Application Plan (TAP) project. The project is designed to yield a comprehensive migration strategy with which to effectively and efficiently transition existing MHS program, projects and initiatives (PPI) to the future-state electronic health record (EHR) environment. The plan will synchronize the MHS’ technical, functional, infrastructure, and financial management processes of transitioning clinical and business functionalities to the future-state EHR.
+  - A March 14, 2014 memorandum signed by the Assistant Secretary of Defense for Health Affairs (ASD/HA) directed all DHA and Services stakeholders to provide information required to make transition decisions for the legacy systems in their portfolios. The TAP team, working directly with the Defense Health Clinical Systems (DHCS) and Defense Health Services (DHSS) Program Executive Offices, in addition to the tri-Services, collected functional, technical, and program management data for all systems identified in connection with the ASD/HA memorandum.
+- Using data provided by the DHA PEOs and Services to characterize the legacy enterprise, the TAP team provided transition recommendations for all identified legacy systems to the Functional Advisory Council (FAC). Based upon the clinical and business capabilities expected to be delivered by the future-state EHR solution and the analysis of the legacy systems provided by OTM, the FAC made decisions on how to transition the legacy systems in the DHA and Services portfolios to the future-state environment. The legacy systems were categorized as either having a low or high probability of being replaced by the future-state EHR solution.
+- This report focuses on the analysis of low probability systems that will not require integration (LPNI) with the future-state EHR. These systems will endure into the future and need to be modernized in order to maintain compliance with relevant DHA standards and ensure continuity of operations in the future-state environment.</t>
+  </si>
+  <si>
+    <t>This section displays the current @SYSTEM@ interfaces and how they are to be affected by the DHMSM deployment.</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Direct Integration</t>
+  </si>
+  <si>
+    <t>Indirect Integration</t>
+  </si>
+  <si>
+    <t>Removed Legacy Interfaces</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This section displays the data objects that @SYSTEM@ is the source of record for and that the DHMSM capability will be required to consume. </t>
+  </si>
+  <si>
+    <t>This report details the characteristics and modernization activities requried to transition the LPNI system to the future-state environment. The report provides the following information and analysis regarding the LPNI system:
+1. System Overview
+2. System Hardware and Software Lifecycles
+3. Modernization Timeline
+4. System Data Requirements and Data Provenance
+5. EHR Data Requirements
+6. System Interface Requirements</t>
+  </si>
 </sst>
 </file>
 
@@ -410,7 +425,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,8 +601,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Impact"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,6 +654,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF366092"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,7 +880,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -949,6 +982,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="48" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1122,6 +1158,21 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1397,11 +1448,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="409964272"/>
-        <c:axId val="409964664"/>
+        <c:axId val="417808032"/>
+        <c:axId val="417808424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="409964272"/>
+        <c:axId val="417808032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,7 +1462,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="409964664"/>
+        <c:crossAx val="417808424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1419,7 +1470,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="409964664"/>
+        <c:axId val="417808424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1430,7 +1481,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="409964272"/>
+        <c:crossAx val="417808032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1563,11 +1614,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="409965448"/>
-        <c:axId val="409965840"/>
+        <c:axId val="417809208"/>
+        <c:axId val="417809600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="409965448"/>
+        <c:axId val="417809208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1577,7 +1628,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="409965840"/>
+        <c:crossAx val="417809600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1585,7 +1636,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="409965840"/>
+        <c:axId val="417809600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1596,7 +1647,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="409965448"/>
+        <c:crossAx val="417809208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1838,11 +1889,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="409968192"/>
-        <c:axId val="409968584"/>
+        <c:axId val="417811952"/>
+        <c:axId val="417812344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="409968192"/>
+        <c:axId val="417811952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1852,7 +1903,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="409968584"/>
+        <c:crossAx val="417812344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1860,7 +1911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="409968584"/>
+        <c:axId val="417812344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1871,7 +1922,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="409968192"/>
+        <c:crossAx val="417811952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1982,6 +2033,201 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>197980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1409898</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1057590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="133" name="Picture 132"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="1236205"/>
+          <a:ext cx="2286198" cy="859610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>197980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1362273</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1057590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="135" name="Picture 134"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="1236205"/>
+          <a:ext cx="2286198" cy="859610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>452620</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1198420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="138" name="Picture 137"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11991975" y="1095375"/>
+          <a:ext cx="2538595" cy="1141270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>112019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>877586</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1143552</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="139" name="Picture 138"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524750" y="1150244"/>
+          <a:ext cx="2534936" cy="1031533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>772211</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>552188</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="141" name="Picture 140"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="2324100"/>
+          <a:ext cx="6153836" cy="495038"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -44208,11 +44454,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -44225,87 +44472,87 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32.25" customHeight="1">
-      <c r="A2" s="51" t="s">
-        <v>55</v>
+      <c r="A2" s="52" t="s">
+        <v>54</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="281.25" customHeight="1">
-      <c r="A4" s="53" t="s">
-        <v>57</v>
+    <row r="4" spans="1:12" ht="286.5" customHeight="1">
+      <c r="A4" s="54" t="s">
+        <v>81</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="56"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="32" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A6" s="51" t="s">
-        <v>58</v>
+      <c r="A6" s="52" t="s">
+        <v>56</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="134.25" customHeight="1">
-      <c r="A8" s="56" t="s">
-        <v>59</v>
+      <c r="A8" s="57" t="s">
+        <v>89</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="33"/>
@@ -44371,7 +44618,7 @@
     <mergeCell ref="A8:L8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="62" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="62" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;F
 &amp;A</oddHeader>
@@ -44387,7 +44634,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -44398,21 +44645,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="41" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="39" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C3" s="38"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="40" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B4" s="40">
         <v>0</v>
@@ -44420,7 +44667,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="40" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B5" s="40">
         <v>0</v>
@@ -44428,7 +44675,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="40" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B6" s="40">
         <v>0</v>
@@ -44436,7 +44683,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="40" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B7" s="40">
         <v>0</v>
@@ -44444,20 +44691,20 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="41" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="40" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B12" s="40">
         <v>0</v>
@@ -44465,7 +44712,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="40" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B13" s="40">
         <v>0</v>
@@ -44473,7 +44720,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="40" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B14" s="40">
         <v>0</v>
@@ -44481,7 +44728,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="40" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B15" s="40">
         <v>0</v>
@@ -44489,7 +44736,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="41" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -44497,12 +44744,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B20" s="40">
         <v>0</v>
@@ -44510,7 +44757,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B21" s="40">
         <v>0</v>
@@ -44518,7 +44765,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B22" s="40">
         <v>0</v>
@@ -44526,7 +44773,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="40" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B23" s="40">
         <v>0</v>
@@ -44534,7 +44781,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="40" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B24" s="40">
         <v>0</v>
@@ -44554,8 +44801,8 @@
   </sheetPr>
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:M7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44575,22 +44822,22 @@
     <row r="1" spans="1:13" ht="7.5" customHeight="1"/>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="250.5" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="68" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71"/>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -44609,20 +44856,20 @@
     </row>
     <row r="4" spans="1:13" ht="32.25" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
     </row>
     <row r="5" spans="1:13" ht="7.5" customHeight="1">
       <c r="A5" s="5"/>
@@ -44648,22 +44895,22 @@
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="375" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="68" t="s">
-        <v>60</v>
+      <c r="C7" s="81"/>
+      <c r="D7" s="69" t="s">
+        <v>57</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="71"/>
     </row>
     <row r="8" spans="1:13" ht="8.25" customHeight="1">
       <c r="A8" s="5"/>
@@ -44674,112 +44921,112 @@
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="62"/>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="28.5" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74" t="s">
+      <c r="C10" s="75"/>
+      <c r="D10" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="81"/>
-      <c r="F10" s="74" t="s">
+      <c r="E10" s="82"/>
+      <c r="F10" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="75"/>
+      <c r="H10" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="74"/>
-      <c r="H10" s="75" t="s">
+      <c r="I10" s="77"/>
+      <c r="J10" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="76"/>
-      <c r="J10" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74" t="s">
+      <c r="K10" s="75"/>
+      <c r="L10" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="74"/>
+      <c r="M10" s="75"/>
     </row>
     <row r="11" spans="1:13" ht="42.75" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="78"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="79"/>
     </row>
     <row r="13" spans="1:13" ht="16.5">
-      <c r="B13" s="59" t="s">
-        <v>65</v>
+      <c r="B13" s="60" t="s">
+        <v>61</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="62"/>
     </row>
     <row r="14" spans="1:13" ht="51" customHeight="1">
-      <c r="B14" s="65" t="s">
-        <v>82</v>
+      <c r="B14" s="66" t="s">
+        <v>78</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="68"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="71" t="s">
-        <v>68</v>
+      <c r="B15" s="72" t="s">
+        <v>64</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="71" t="s">
-        <v>74</v>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="72" t="s">
+        <v>70</v>
       </c>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="74"/>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="42"/>
@@ -45006,36 +45253,36 @@
       <c r="M31" s="50"/>
     </row>
     <row r="33" spans="2:13" ht="16.5">
-      <c r="B33" s="59" t="s">
-        <v>75</v>
+      <c r="B33" s="60" t="s">
+        <v>71</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="62"/>
     </row>
     <row r="34" spans="2:13" ht="33.75" customHeight="1">
-      <c r="B34" s="62" t="s">
-        <v>81</v>
+      <c r="B34" s="63" t="s">
+        <v>77</v>
       </c>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="65"/>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="42"/>
@@ -45290,7 +45537,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="91" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -45299,6 +45546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF366092"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -45320,68 +45568,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A5" s="89" t="s">
-        <v>61</v>
+      <c r="A5" s="90" t="s">
+        <v>58</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="92"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="83" t="s">
-        <v>52</v>
+      <c r="B7" s="88"/>
+      <c r="C7" s="84" t="s">
+        <v>51</v>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="86"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="25.5">
@@ -45389,7 +45637,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>27</v>
@@ -45418,7 +45666,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -45430,7 +45678,7 @@
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="89" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -45439,6 +45687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF366092"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:G10"/>
   <sheetViews>
@@ -45459,57 +45708,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="95"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A5" s="89" t="s">
-        <v>62</v>
+      <c r="A5" s="90" t="s">
+        <v>59</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="92"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="95" t="s">
-        <v>53</v>
+      <c r="B7" s="89"/>
+      <c r="C7" s="96" t="s">
+        <v>52</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
     </row>
     <row r="9" spans="1:7" ht="25.5">
       <c r="A9" s="35" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>27</v>
@@ -45545,7 +45794,7 @@
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="89" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -45570,18 +45819,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
     </row>
     <row r="3" spans="1:10" ht="18">
       <c r="A3" s="12"/>
@@ -45591,17 +45840,17 @@
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="96" t="s">
-        <v>63</v>
+      <c r="B4" s="97" t="s">
+        <v>60</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="99"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2"/>
@@ -45702,7 +45951,7 @@
     </row>
     <row r="10" spans="1:10" ht="41.25" customHeight="1">
       <c r="A10" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="25">
         <v>0</v>
@@ -45710,7 +45959,7 @@
     </row>
     <row r="11" spans="1:10" ht="41.25" customHeight="1">
       <c r="A11" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="25">
         <v>0</v>
@@ -45749,41 +45998,41 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1"/>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
     </row>
     <row r="4" spans="1:10" ht="53.25" customHeight="1">
       <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="100" t="s">
-        <v>83</v>
+      <c r="B4" s="101" t="s">
+        <v>79</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="103"/>
     </row>
     <row r="6" spans="1:10" ht="39.75" customHeight="1">
       <c r="A6" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -45805,6 +46054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF366092"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:B7"/>
   <sheetViews>
@@ -45820,10 +46070,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="18">
-      <c r="A2" s="99" t="s">
-        <v>56</v>
+      <c r="A2" s="100" t="s">
+        <v>55</v>
       </c>
-      <c r="B2" s="99"/>
+      <c r="B2" s="100"/>
     </row>
     <row r="3" spans="1:2" ht="18">
       <c r="A3" s="12"/>
@@ -45858,7 +46108,7 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="99" orientation="portrait" r:id="rId1"/>
+  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -45867,11 +46117,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF366092"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -45883,25 +46134,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="18">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
     </row>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3" ht="18">
+    <row r="4" spans="1:3" ht="25.5" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="96" t="s">
-        <v>64</v>
+      <c r="B4" s="97" t="s">
+        <v>88</v>
       </c>
-      <c r="C4" s="98"/>
+      <c r="C4" s="99"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2"/>
@@ -45916,7 +46167,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -45930,7 +46181,7 @@
     <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="69" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="78" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -45939,11 +46190,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF366092"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -45966,112 +46218,152 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1"/>
     <row r="2" spans="1:13" ht="18" customHeight="1">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="106" t="s">
-        <v>41</v>
+      <c r="B4" s="105"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="107" t="s">
+        <v>82</v>
       </c>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="109"/>
     </row>
-    <row r="6" spans="1:13" ht="39.75" customHeight="1">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:13" ht="96.75" customHeight="1">
+      <c r="A6" s="111" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110"/>
+    </row>
+    <row r="7" spans="1:13" ht="45" customHeight="1">
+      <c r="A7" s="111"/>
+      <c r="B7" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="112"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="114"/>
+    </row>
+    <row r="9" spans="1:13" ht="39.75" customHeight="1">
+      <c r="A9" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C9" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D9" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E9" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I9" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J9" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="35" t="s">
-        <v>84</v>
+      <c r="K9" s="35" t="s">
+        <v>80</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L9" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="36" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
+    <row r="10" spans="1:13">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
     </row>
-    <row r="8" spans="1:13">
-      <c r="K8" s="27" t="s">
+    <row r="11" spans="1:13">
+      <c r="K11" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="C7:G7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="48" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
+++ b/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="91">
   <si>
     <t>Garrison / Theater</t>
   </si>
@@ -415,6 +415,9 @@
 4. System Data Requirements and Data Provenance
 5. EHR Data Requirements
 6. System Interface Requirements</t>
+  </si>
+  <si>
+    <t>Proposed Temporary Interfaces with DHMSM - Legacy Consumer</t>
   </si>
 </sst>
 </file>
@@ -1009,6 +1012,33 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1036,15 +1066,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1054,28 +1075,10 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1448,11 +1451,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="417808032"/>
-        <c:axId val="417808424"/>
+        <c:axId val="504991248"/>
+        <c:axId val="504991640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="417808032"/>
+        <c:axId val="504991248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1462,7 +1465,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="417808424"/>
+        <c:crossAx val="504991640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1470,7 +1473,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="417808424"/>
+        <c:axId val="504991640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1481,7 +1484,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="417808032"/>
+        <c:crossAx val="504991248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1614,11 +1617,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="417809208"/>
-        <c:axId val="417809600"/>
+        <c:axId val="504992424"/>
+        <c:axId val="504992816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="417809208"/>
+        <c:axId val="504992424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1628,7 +1631,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="417809600"/>
+        <c:crossAx val="504992816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1636,7 +1639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="417809600"/>
+        <c:axId val="504992816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1647,7 +1650,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="417809208"/>
+        <c:crossAx val="504992424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1880,6 +1883,45 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary Charts'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed Temporary Interfaces with DHMSM - Legacy Consumer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Summary Charts'!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary Charts'!$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1889,11 +1931,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="417811952"/>
-        <c:axId val="417812344"/>
+        <c:axId val="504993600"/>
+        <c:axId val="504993992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="417811952"/>
+        <c:axId val="504993600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,7 +1945,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="417812344"/>
+        <c:crossAx val="504993992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1911,7 +1953,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="417812344"/>
+        <c:axId val="504993992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1922,13 +1964,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="417811952"/>
+        <c:crossAx val="504993600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -44631,10 +44674,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -44787,6 +44830,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="40">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -44802,7 +44853,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:M14"/>
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44822,22 +44873,22 @@
     <row r="1" spans="1:13" ht="7.5" customHeight="1"/>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="250.5" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="69" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="71"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -44895,22 +44946,22 @@
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="375" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="69" t="s">
+      <c r="C7" s="61"/>
+      <c r="D7" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="71"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="64"/>
     </row>
     <row r="8" spans="1:13" ht="8.25" customHeight="1">
       <c r="A8" s="5"/>
@@ -44921,112 +44972,112 @@
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="62"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="71"/>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="28.5" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75" t="s">
+      <c r="C10" s="65"/>
+      <c r="D10" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="75" t="s">
+      <c r="E10" s="68"/>
+      <c r="F10" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76" t="s">
+      <c r="G10" s="65"/>
+      <c r="H10" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="77"/>
-      <c r="J10" s="75" t="s">
+      <c r="I10" s="82"/>
+      <c r="J10" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75" t="s">
+      <c r="K10" s="65"/>
+      <c r="L10" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="75"/>
+      <c r="M10" s="65"/>
     </row>
     <row r="11" spans="1:13" ht="42.75" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="79"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="67"/>
     </row>
     <row r="13" spans="1:13" ht="16.5">
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="62"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="71"/>
     </row>
     <row r="14" spans="1:13" ht="51" customHeight="1">
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="68"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="77"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="72" t="s">
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="74"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="80"/>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="42"/>
@@ -45253,36 +45304,36 @@
       <c r="M31" s="50"/>
     </row>
     <row r="33" spans="2:13" ht="16.5">
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="62"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="71"/>
     </row>
     <row r="34" spans="2:13" ht="33.75" customHeight="1">
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="65"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="74"/>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="42"/>
@@ -45510,6 +45561,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="D2:M2"/>
@@ -45523,17 +45585,6 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
+++ b/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
@@ -9,21 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834"/>
+    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="33" r:id="rId1"/>
     <sheet name="System Overview" sheetId="21" r:id="rId2"/>
     <sheet name="Software Lifecycles" sheetId="22" r:id="rId3"/>
     <sheet name="Hardware Lifecycles" sheetId="23" r:id="rId4"/>
-    <sheet name="Modernization Timeline" sheetId="29" r:id="rId5"/>
-    <sheet name="System Data" sheetId="30" r:id="rId6"/>
-    <sheet name="SOR Overlap With DHMSM" sheetId="28" r:id="rId7"/>
-    <sheet name="DHMSM Data Requirements" sheetId="26" r:id="rId8"/>
-    <sheet name="System Interfaces" sheetId="27" r:id="rId9"/>
-    <sheet name="Summary Charts" sheetId="34" r:id="rId10"/>
+    <sheet name="System Data" sheetId="30" r:id="rId5"/>
+    <sheet name="SOR Overlap With DHMSM" sheetId="28" r:id="rId6"/>
+    <sheet name="DHMSM Data Requirements" sheetId="26" r:id="rId7"/>
+    <sheet name="System Interfaces" sheetId="27" r:id="rId8"/>
+    <sheet name="Summary Charts" sheetId="34" r:id="rId9"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
@@ -34,7 +34,6 @@
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
-    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
     <definedName name="Additional">[1]Data!$D$3:$D$15</definedName>
@@ -63,7 +62,6 @@
     <definedName name="HW">[5]SiteDB2!$L$2:$L$330</definedName>
     <definedName name="I_O" localSheetId="0">#REF!</definedName>
     <definedName name="I_O" localSheetId="4">#REF!</definedName>
-    <definedName name="I_O" localSheetId="5">#REF!</definedName>
     <definedName name="I_O" localSheetId="1">#REF!</definedName>
     <definedName name="I_O">#REF!</definedName>
     <definedName name="Link3">[6]Data1!$D$4:$D$182</definedName>
@@ -76,12 +74,12 @@
     <definedName name="Portal_ROI">[2]BOM!$N$46</definedName>
     <definedName name="Portal_SUM">'[2]POM 2 Enabler - FY12'!$N$102</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'System Overview'!$A$2:$M$11</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">'DHMSM Data Requirements'!$6:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'DHMSM Data Requirements'!$6:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Hardware Lifecycles'!$9:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Software Lifecycles'!$9:$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'SOR Overlap With DHMSM'!$6:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'System Data'!$6:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="8">'System Interfaces'!$9:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'SOR Overlap With DHMSM'!$6:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'System Data'!$6:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'System Interfaces'!$9:$9</definedName>
     <definedName name="Priority3">[6]Data1!$B$4:$B$6</definedName>
     <definedName name="ProcContractMonths">'[2]New Timeline'!$A$22</definedName>
     <definedName name="RangeBLU">[7]BLUBackEnd!$G$5:$G$49</definedName>
@@ -100,7 +98,6 @@
     <definedName name="Teams">[2]Cheat!$A$38:$A$39</definedName>
     <definedName name="Type" localSheetId="0">#REF!</definedName>
     <definedName name="Type" localSheetId="4">#REF!</definedName>
-    <definedName name="Type" localSheetId="5">#REF!</definedName>
     <definedName name="Type" localSheetId="1">#REF!</definedName>
     <definedName name="Type">#REF!</definedName>
     <definedName name="UDDI_ROI">[2]BOM!$N$58</definedName>
@@ -112,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
   <si>
     <t>Garrison / Theater</t>
   </si>
@@ -227,24 +224,6 @@
 This report focuses on low probability systems that will require integration with the future-state EHR and provides analytical insights that specify the activities required for the system highlighted in this report to transition to the future state environment.</t>
   </si>
   <si>
-    <t>System Modernization Timeline</t>
-  </si>
-  <si>
-    <t>Software Cost</t>
-  </si>
-  <si>
-    <t>Hardware Cost</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Software License Budget</t>
-  </si>
-  <si>
-    <t>Hardware Budget</t>
-  </si>
-  <si>
     <t>Direct Cost</t>
   </si>
   <si>
@@ -310,15 +289,6 @@
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>Software characteristics are based upon TAP data submissions provided by the DHA and Services program offices. Projected upgrade costs are based solely upon data provided to OTM.</t>
-  </si>
-  <si>
-    <t>Hardware characteristics are based upon TAP data submissions provided by the DHA and Services program offices. Projected upgrade costs are based solely upon data provided to OTM.</t>
-  </si>
-  <si>
-    <t>This section displays the cost to upgrade software and hardware that @SYSTEM@ uses as the modules reach end-of-life.</t>
   </si>
   <si>
     <t>System Maturity</t>
@@ -419,6 +389,12 @@
   <si>
     <t>Proposed Temporary Interfaces with DHMSM - Legacy Consumer</t>
   </si>
+  <si>
+    <t>Software characteristics are based upon TAP data submissions provided by the DHA and Services program offices for each of their systems. Annual software sustainment costs were provided by the system owners as part of their budgets. Projected product upgrade costs are taken from industry pricing where available. This tab is broken down into three points in time (current state, IOC, and FOC for DHMSM) to illustrate the changing lifecycle of the system’s products over time and to more closely detail transition plans as information is made available.</t>
+  </si>
+  <si>
+    <t>Hardware characteristics are based upon TAP data submissions provided by the DHA and Services program offices for each of their systems. Annual hardware sustainment costs were provided by the system owners as part of their budgets. Projected product upgrade costs are taken from industry pricing where available. This tab is broken down into three points in time (current state, IOC, and FOC for DHMSM) to illustrate the changing lifecycle of the system’s products over time and to more closely detail transition plans as information is made available.</t>
+  </si>
 </sst>
 </file>
 
@@ -428,7 +404,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -565,12 +541,6 @@
       <color theme="1"/>
       <name val="Impact"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -883,7 +853,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -938,14 +908,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -957,12 +921,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -972,10 +936,10 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="48" applyBorder="1"/>
@@ -985,7 +949,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="48" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1003,41 +967,14 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1066,6 +1003,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1075,10 +1021,28 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1126,9 +1090,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1165,7 +1126,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1451,11 +1412,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="504991248"/>
-        <c:axId val="504991640"/>
+        <c:axId val="479403688"/>
+        <c:axId val="479404080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="504991248"/>
+        <c:axId val="479403688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1465,7 +1426,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504991640"/>
+        <c:crossAx val="479404080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1473,7 +1434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="504991640"/>
+        <c:axId val="479404080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1484,7 +1445,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504991248"/>
+        <c:crossAx val="479403688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1617,11 +1578,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="504992424"/>
-        <c:axId val="504992816"/>
+        <c:axId val="479405256"/>
+        <c:axId val="479405648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="504992424"/>
+        <c:axId val="479405256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1631,7 +1592,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504992816"/>
+        <c:crossAx val="479405648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1639,7 +1600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="504992816"/>
+        <c:axId val="479405648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1650,7 +1611,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504992424"/>
+        <c:crossAx val="479405256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1931,11 +1892,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="504993600"/>
-        <c:axId val="504993992"/>
+        <c:axId val="479406432"/>
+        <c:axId val="479406824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="504993600"/>
+        <c:axId val="479406432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1945,7 +1906,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504993992"/>
+        <c:crossAx val="479406824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1953,7 +1914,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="504993992"/>
+        <c:axId val="479406824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1964,14 +1925,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504993600"/>
+        <c:crossAx val="479406432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -44501,157 +44461,157 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="31" customWidth="1"/>
-    <col min="2" max="11" width="9.140625" style="31"/>
-    <col min="12" max="12" width="33.28515625" style="31" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="31"/>
+    <col min="1" max="1" width="17.5703125" style="29" customWidth="1"/>
+    <col min="2" max="11" width="9.140625" style="29"/>
+    <col min="12" max="12" width="33.28515625" style="29" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32.25" customHeight="1">
-      <c r="A2" s="52" t="s">
-        <v>54</v>
+      <c r="A2" s="50" t="s">
+        <v>48</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="286.5" customHeight="1">
-      <c r="A4" s="54" t="s">
-        <v>81</v>
+      <c r="A4" s="52" t="s">
+        <v>72</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="30" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A6" s="50" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" s="32" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A6" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="134.25" customHeight="1">
-      <c r="A8" s="57" t="s">
-        <v>89</v>
+      <c r="A8" s="55" t="s">
+        <v>80</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="59"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="57"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -44666,181 +44626,6 @@
     <oddHeader>&amp;C&amp;F
 &amp;A</oddHeader>
   </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:C25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="38.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="38"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="40">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -44873,22 +44658,22 @@
     <row r="1" spans="1:13" ht="7.5" customHeight="1"/>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="250.5" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="64"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -44907,20 +44692,20 @@
     </row>
     <row r="4" spans="1:13" ht="32.25" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
     </row>
     <row r="5" spans="1:13" ht="7.5" customHeight="1">
       <c r="A5" s="5"/>
@@ -44946,22 +44731,22 @@
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="375" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62" t="s">
-        <v>57</v>
+      <c r="C7" s="79"/>
+      <c r="D7" s="67" t="s">
+        <v>51</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="64"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="69"/>
     </row>
     <row r="8" spans="1:13" ht="8.25" customHeight="1">
       <c r="A8" s="5"/>
@@ -44972,606 +44757,595 @@
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="71"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="60"/>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="28.5" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65" t="s">
+      <c r="C10" s="73"/>
+      <c r="D10" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="65" t="s">
-        <v>45</v>
+      <c r="E10" s="80"/>
+      <c r="F10" s="73" t="s">
+        <v>39</v>
       </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="81" t="s">
-        <v>46</v>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74" t="s">
+        <v>40</v>
       </c>
-      <c r="I10" s="82"/>
-      <c r="J10" s="65" t="s">
-        <v>47</v>
+      <c r="I10" s="75"/>
+      <c r="J10" s="73" t="s">
+        <v>41</v>
       </c>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65" t="s">
+      <c r="K10" s="73"/>
+      <c r="L10" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="65"/>
+      <c r="M10" s="73"/>
     </row>
     <row r="11" spans="1:13" ht="42.75" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="67"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="77"/>
     </row>
     <row r="13" spans="1:13" ht="16.5">
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="60"/>
+    </row>
+    <row r="14" spans="1:13" ht="51" customHeight="1">
+      <c r="B14" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="66"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="71"/>
-    </row>
-    <row r="14" spans="1:13" ht="51" customHeight="1">
-      <c r="B14" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="77"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="B15" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="80"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="44"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="42"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="47"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="45"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="47"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="45"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="47"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="45"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="47"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="45"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="47"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="45"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="47"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="45"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="47"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="45"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="47"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="45"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="47"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="45"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="47"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="45"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="45"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="47"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="45"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="45"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="47"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="45"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="45"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="47"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="45"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="47"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="45"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="50"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="48"/>
     </row>
     <row r="33" spans="2:13" ht="16.5">
-      <c r="B33" s="69" t="s">
-        <v>71</v>
+      <c r="B33" s="58" t="s">
+        <v>62</v>
       </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="71"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="60"/>
     </row>
     <row r="34" spans="2:13" ht="33.75" customHeight="1">
-      <c r="B34" s="72" t="s">
-        <v>77</v>
+      <c r="B34" s="61" t="s">
+        <v>68</v>
       </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="74"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="63"/>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="44"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="42"/>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="45"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="47"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="45"/>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="45"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="47"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="45"/>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="45"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="47"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="45"/>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="47"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="45"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="45"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="47"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="45"/>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="45"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="47"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="45"/>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="45"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="47"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="45"/>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="45"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="47"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="45"/>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="45"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="47"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="45"/>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="45"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="47"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="45"/>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="45"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="47"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="45"/>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="45"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="47"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="45"/>
     </row>
     <row r="48" spans="2:13">
-      <c r="B48" s="45"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="47"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="45"/>
     </row>
     <row r="49" spans="2:13">
-      <c r="B49" s="45"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="47"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="45"/>
     </row>
     <row r="50" spans="2:13">
-      <c r="B50" s="48"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="50"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="D2:M2"/>
@@ -45585,6 +45359,17 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45602,7 +45387,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -45619,90 +45404,90 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A5" s="90" t="s">
-        <v>58</v>
+    <row r="5" spans="1:7" ht="67.5" customHeight="1">
+      <c r="A5" s="88" t="s">
+        <v>82</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="92"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="84" t="s">
-        <v>51</v>
+      <c r="B7" s="86"/>
+      <c r="C7" s="82" t="s">
+        <v>45</v>
       </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="86"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="84"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="25.5">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>48</v>
+      <c r="B9" s="33" t="s">
+        <v>42</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="33" t="s">
         <v>22</v>
       </c>
     </row>
@@ -45710,14 +45495,14 @@
       <c r="A10" s="23"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="28"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="28"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -45743,7 +45528,7 @@
   <dimension ref="A2:G10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -45759,71 +45544,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="95"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
     </row>
-    <row r="5" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A5" s="90" t="s">
-        <v>59</v>
+    <row r="5" spans="1:7" ht="67.5" customHeight="1">
+      <c r="A5" s="88" t="s">
+        <v>83</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="92"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="96" t="s">
-        <v>52</v>
+      <c r="B7" s="87"/>
+      <c r="C7" s="94" t="s">
+        <v>46</v>
       </c>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
     </row>
     <row r="9" spans="1:7" ht="25.5">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>48</v>
+      <c r="B9" s="33" t="s">
+        <v>42</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="33" t="s">
         <v>24</v>
       </c>
     </row>
@@ -45831,10 +45616,10 @@
       <c r="A10" s="23"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="28"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="28"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -45856,187 +45641,10 @@
     <tabColor rgb="FF366092"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J11"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
-    <col min="2" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="100" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-    </row>
-    <row r="3" spans="1:10" ht="18">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-    </row>
-    <row r="4" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="97" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="99"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="24" customHeight="1">
-      <c r="B6" s="35">
-        <v>2015</v>
-      </c>
-      <c r="C6" s="35">
-        <v>2016</v>
-      </c>
-      <c r="D6" s="35">
-        <v>2017</v>
-      </c>
-      <c r="E6" s="35">
-        <v>2018</v>
-      </c>
-      <c r="F6" s="35">
-        <v>2019</v>
-      </c>
-      <c r="G6" s="35">
-        <v>2020</v>
-      </c>
-      <c r="H6" s="35">
-        <v>2021</v>
-      </c>
-      <c r="I6" s="35">
-        <v>2022</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A7" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="24">
-        <v>0</v>
-      </c>
-      <c r="C7" s="24">
-        <v>0</v>
-      </c>
-      <c r="D7" s="24">
-        <v>0</v>
-      </c>
-      <c r="E7" s="24">
-        <v>0</v>
-      </c>
-      <c r="F7" s="24">
-        <v>0</v>
-      </c>
-      <c r="G7" s="24">
-        <v>0</v>
-      </c>
-      <c r="H7" s="24">
-        <v>0</v>
-      </c>
-      <c r="I7" s="24">
-        <v>0</v>
-      </c>
-      <c r="J7" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A8" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="24">
-        <v>0</v>
-      </c>
-      <c r="C8" s="24">
-        <v>0</v>
-      </c>
-      <c r="D8" s="24">
-        <v>0</v>
-      </c>
-      <c r="E8" s="24">
-        <v>0</v>
-      </c>
-      <c r="F8" s="24">
-        <v>0</v>
-      </c>
-      <c r="G8" s="24">
-        <v>0</v>
-      </c>
-      <c r="H8" s="24">
-        <v>0</v>
-      </c>
-      <c r="I8" s="24">
-        <v>0</v>
-      </c>
-      <c r="J8" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A10" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A11" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="25">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="A2:J2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="75" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF366092"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -46049,46 +45657,46 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1"/>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
     </row>
     <row r="4" spans="1:10" ht="53.25" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="101" t="s">
-        <v>79</v>
+      <c r="B4" s="98" t="s">
+        <v>70</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="103"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100"/>
     </row>
     <row r="6" spans="1:10" ht="39.75" customHeight="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>53</v>
+      <c r="B6" s="33" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -46101,7 +45709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF366092"/>
@@ -46121,10 +45729,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="18">
-      <c r="A2" s="100" t="s">
-        <v>55</v>
+      <c r="A2" s="97" t="s">
+        <v>49</v>
       </c>
-      <c r="B2" s="100"/>
+      <c r="B2" s="97"/>
     </row>
     <row r="3" spans="1:2" ht="18">
       <c r="A3" s="12"/>
@@ -46143,10 +45751,10 @@
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -46164,7 +45772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF366092"/>
@@ -46185,11 +45793,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="18">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
     </row>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="12"/>
@@ -46200,10 +45808,10 @@
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="97" t="s">
-        <v>88</v>
+      <c r="B4" s="95" t="s">
+        <v>79</v>
       </c>
-      <c r="C4" s="99"/>
+      <c r="C4" s="96"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2"/>
@@ -46211,14 +45819,14 @@
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>49</v>
+      <c r="C6" s="33" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -46237,7 +45845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF366092"/>
@@ -46269,114 +45877,114 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1"/>
     <row r="2" spans="1:13" ht="18" customHeight="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="107" t="s">
-        <v>82</v>
+      <c r="B4" s="102"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104" t="s">
+        <v>73</v>
       </c>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="109"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="106"/>
     </row>
     <row r="6" spans="1:13" ht="96.75" customHeight="1">
-      <c r="A6" s="111" t="s">
-        <v>83</v>
+      <c r="A6" s="108" t="s">
+        <v>74</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>84</v>
+      <c r="B6" s="49" t="s">
+        <v>75</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="51" t="s">
-        <v>85</v>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="49" t="s">
+        <v>76</v>
       </c>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="51" t="s">
-        <v>86</v>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="49" t="s">
+        <v>77</v>
       </c>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
     </row>
     <row r="7" spans="1:13" ht="45" customHeight="1">
-      <c r="A7" s="111"/>
-      <c r="B7" s="51" t="s">
-        <v>87</v>
+      <c r="A7" s="108"/>
+      <c r="B7" s="49" t="s">
+        <v>78</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="114"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="111"/>
     </row>
     <row r="9" spans="1:13" ht="39.75" customHeight="1">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="35" t="s">
-        <v>80</v>
+      <c r="K9" s="33" t="s">
+        <v>71</v>
       </c>
-      <c r="L9" s="36" t="s">
-        <v>43</v>
+      <c r="L9" s="34" t="s">
+        <v>37</v>
       </c>
-      <c r="M9" s="36" t="s">
-        <v>44</v>
+      <c r="M9" s="34" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -46395,11 +46003,11 @@
       <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -46417,4 +46025,179 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="36"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="38">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
+++ b/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="33" r:id="rId1"/>
@@ -345,9 +345,6 @@
     <t>The following graphs provide an overview of the hardware and software maturity for @SYSTEM@, illustrating the number of software and hardware products in each lifecycle phase  at the start of IOC (expected @DATE@).</t>
   </si>
   <si>
-    <t>This section displays the data objects that @SYSTEM@ is a source of record of and the numbers of systems which @SYSTEM@ sends the data to. Additionally, this section displays the data objects that @SYSTEM@ consumes, the other systems that are a source of the data object and the number of low probability systems they provide data for.</t>
-  </si>
-  <si>
     <t>Recommendation</t>
   </si>
   <si>
@@ -394,6 +391,9 @@
   </si>
   <si>
     <t>Hardware characteristics are based upon TAP data submissions provided by the DHA and Services program offices for each of their systems. Annual hardware sustainment costs were provided by the system owners as part of their budgets. Projected product upgrade costs are taken from industry pricing where available. This tab is broken down into three points in time (current state, IOC, and FOC for DHMSM) to illustrate the changing lifecycle of the system’s products over time and to more closely detail transition plans as information is made available.</t>
+  </si>
+  <si>
+    <t>This section displays the data objects that @SYSTEM@ is a source of record of and consumes. For each data object @SYSTEM@ is a source of record of, the number in the @SYSTEM@ column represents the number of systems the data object is passed to. For each data object @SYSTEM@ consumes, the highlighted cells depict the systems @SYSTEM@ receives the data from. The numbers in these cells represent the total number of systems they pass the data objects to.</t>
   </si>
 </sst>
 </file>
@@ -976,6 +976,33 @@
     <xf numFmtId="0" fontId="24" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1003,15 +1030,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1021,28 +1039,10 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1087,12 +1087,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1103,6 +1097,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1412,11 +1412,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="479403688"/>
-        <c:axId val="479404080"/>
+        <c:axId val="553333016"/>
+        <c:axId val="553333408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="479403688"/>
+        <c:axId val="553333016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1426,7 +1426,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="479404080"/>
+        <c:crossAx val="553333408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1434,7 +1434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="479404080"/>
+        <c:axId val="553333408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,7 +1445,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="479403688"/>
+        <c:crossAx val="553333016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1578,11 +1578,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="479405256"/>
-        <c:axId val="479405648"/>
+        <c:axId val="553334192"/>
+        <c:axId val="553334584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="479405256"/>
+        <c:axId val="553334192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,7 +1592,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="479405648"/>
+        <c:crossAx val="553334584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1600,7 +1600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="479405648"/>
+        <c:axId val="553334584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1611,7 +1611,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="479405256"/>
+        <c:crossAx val="553334192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1892,11 +1892,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="479406432"/>
-        <c:axId val="479406824"/>
+        <c:axId val="553335368"/>
+        <c:axId val="553335760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="479406432"/>
+        <c:axId val="553335368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1906,7 +1906,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="479406824"/>
+        <c:crossAx val="553335760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1914,7 +1914,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="479406824"/>
+        <c:axId val="553335760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1925,7 +1925,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="479406432"/>
+        <c:crossAx val="553335368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -44461,7 +44461,7 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
@@ -44501,7 +44501,7 @@
     </row>
     <row r="4" spans="1:12" ht="286.5" customHeight="1">
       <c r="A4" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
@@ -44543,7 +44543,7 @@
     </row>
     <row r="8" spans="1:12" ht="134.25" customHeight="1">
       <c r="A8" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
@@ -44658,22 +44658,22 @@
     <row r="1" spans="1:13" ht="7.5" customHeight="1"/>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="250.5" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="67" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="69"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62"/>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -44731,22 +44731,22 @@
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="375" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="67" t="s">
+      <c r="C7" s="59"/>
+      <c r="D7" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="69"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="62"/>
     </row>
     <row r="8" spans="1:13" ht="8.25" customHeight="1">
       <c r="A8" s="5"/>
@@ -44757,112 +44757,112 @@
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="60"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="69"/>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="28.5" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73" t="s">
+      <c r="C10" s="63"/>
+      <c r="D10" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="73" t="s">
+      <c r="E10" s="66"/>
+      <c r="F10" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="74" t="s">
+      <c r="G10" s="63"/>
+      <c r="H10" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="75"/>
-      <c r="J10" s="73" t="s">
+      <c r="I10" s="80"/>
+      <c r="J10" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73" t="s">
+      <c r="K10" s="63"/>
+      <c r="L10" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="73"/>
+      <c r="M10" s="63"/>
     </row>
     <row r="11" spans="1:13" ht="42.75" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="77"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="65"/>
     </row>
     <row r="13" spans="1:13" ht="16.5">
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="60"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="69"/>
     </row>
     <row r="14" spans="1:13" ht="51" customHeight="1">
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="66"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="75"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="70" t="s">
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="72"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="78"/>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="40"/>
@@ -45089,36 +45089,36 @@
       <c r="M31" s="48"/>
     </row>
     <row r="33" spans="2:13" ht="16.5">
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="60"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="69"/>
     </row>
     <row r="34" spans="2:13" ht="33.75" customHeight="1">
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="63"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="72"/>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="40"/>
@@ -45346,6 +45346,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="D2:M2"/>
@@ -45359,17 +45370,6 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45436,7 +45436,7 @@
     </row>
     <row r="5" spans="1:7" ht="67.5" customHeight="1">
       <c r="A5" s="88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="89"/>
       <c r="C5" s="89"/>
@@ -45567,7 +45567,7 @@
     </row>
     <row r="5" spans="1:7" ht="67.5" customHeight="1">
       <c r="A5" s="88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="89"/>
       <c r="C5" s="89"/>
@@ -45643,8 +45643,8 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -45657,34 +45657,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1"/>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
     </row>
     <row r="4" spans="1:10" ht="53.25" customHeight="1">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="98" t="s">
-        <v>70</v>
+      <c r="B4" s="96" t="s">
+        <v>83</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="100"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="98"/>
     </row>
     <row r="6" spans="1:10" ht="39.75" customHeight="1">
       <c r="A6" s="33" t="s">
@@ -45729,10 +45729,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="18">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="97"/>
+      <c r="B2" s="95"/>
     </row>
     <row r="3" spans="1:2" ht="18">
       <c r="A3" s="12"/>
@@ -45793,11 +45793,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="18">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
     </row>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="12"/>
@@ -45808,10 +45808,10 @@
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="95" t="s">
-        <v>79</v>
+      <c r="B4" s="99" t="s">
+        <v>78</v>
       </c>
-      <c r="C4" s="96"/>
+      <c r="C4" s="100"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2"/>
@@ -45877,21 +45877,21 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1"/>
     <row r="2" spans="1:13" ht="18" customHeight="1">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1">
       <c r="A4" s="101" t="s">
@@ -45900,7 +45900,7 @@
       <c r="B4" s="102"/>
       <c r="C4" s="103"/>
       <c r="D4" s="104" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="105"/>
       <c r="F4" s="105"/>
@@ -45914,22 +45914,22 @@
     </row>
     <row r="6" spans="1:13" ht="96.75" customHeight="1">
       <c r="A6" s="108" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="107"/>
       <c r="D6" s="107"/>
       <c r="E6" s="107"/>
       <c r="F6" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" s="107"/>
       <c r="H6" s="107"/>
       <c r="I6" s="107"/>
       <c r="J6" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K6" s="107"/>
       <c r="L6" s="107"/>
@@ -45938,7 +45938,7 @@
     <row r="7" spans="1:13" ht="45" customHeight="1">
       <c r="A7" s="108"/>
       <c r="B7" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="109"/>
       <c r="D7" s="110"/>
@@ -45978,7 +45978,7 @@
         <v>9</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L9" s="34" t="s">
         <v>37</v>
@@ -46190,7 +46190,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="38">
         <v>0</v>

--- a/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
+++ b/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834"/>
+    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="33" r:id="rId1"/>
@@ -219,11 +219,6 @@
     <t>Report Overview</t>
   </si>
   <si>
-    <t>The Office of Transition Management (OTM) Transition Application Planning (TAP) coordinated with the Defense Health Clinical Systems (DHCS) and Defense Health Services Systems (DHSS) program offices, in addition to the tri-Services, to collect technical and functional data regarding their information systems, in order to fully characterize the legacy DHA IM/IT portfolio. 
-Using this data, OTM provided detailed analysis regarding each legacy system to the Functional Advisory Council (FAC), which made transition decisions that define if each system would be replaced by the future-state EHR (high probability systems) or would endure to support the future-state EHR (low probability systems).
-This report focuses on low probability systems that will require integration with the future-state EHR and provides analytical insights that specify the activities required for the system highlighted in this report to transition to the future state environment.</t>
-  </si>
-  <si>
     <t>Direct Cost</t>
   </si>
   <si>
@@ -394,6 +389,11 @@
   </si>
   <si>
     <t>This section displays the data objects that @SYSTEM@ is a source of record of and consumes. For each data object @SYSTEM@ is a source of record of, the number in the @SYSTEM@ column represents the number of systems the data object is passed to. For each data object @SYSTEM@ consumes, the highlighted cells depict the systems @SYSTEM@ receives the data from. The numbers in these cells represent the total number of systems they pass the data objects to.</t>
+  </si>
+  <si>
+    <t>The Office of Transition Management (OTM) Transition Application Planning (TAP) coordinated with the Defense Health Clinical Systems (DHCS) and Defense Health Services Systems (DHSS) program offices, in addition to the tri-Services, to collect technical and functional data regarding their information systems, in order to fully characterize the legacy DHA IM/IT portfolio. 
+Using this data, OTM provided detailed analysis regarding each legacy system to the Functional Advisory Council (FAC), which made transition decisions that define if each system would be replaced by the future-state EHR (high probability systems) or would endure to support the future-state EHR (low probability systems).
+This report focuses on low probability systems that will not require integration with the future-state EHR and provides analytical insights that specify the activities required for the system highlighted in this report to transition to the future state environment.</t>
   </si>
 </sst>
 </file>
@@ -976,33 +976,6 @@
     <xf numFmtId="0" fontId="24" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1030,6 +1003,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1039,10 +1021,28 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1412,11 +1412,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="553333016"/>
-        <c:axId val="553333408"/>
+        <c:axId val="381745528"/>
+        <c:axId val="381745920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="553333016"/>
+        <c:axId val="381745528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1426,7 +1426,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="553333408"/>
+        <c:crossAx val="381745920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1434,7 +1434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="553333408"/>
+        <c:axId val="381745920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,7 +1445,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="553333016"/>
+        <c:crossAx val="381745528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1578,11 +1578,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="553334192"/>
-        <c:axId val="553334584"/>
+        <c:axId val="381746704"/>
+        <c:axId val="381747096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="553334192"/>
+        <c:axId val="381746704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,7 +1592,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="553334584"/>
+        <c:crossAx val="381747096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1600,7 +1600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="553334584"/>
+        <c:axId val="381747096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1611,7 +1611,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="553334192"/>
+        <c:crossAx val="381746704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1892,11 +1892,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="553335368"/>
-        <c:axId val="553335760"/>
+        <c:axId val="381747880"/>
+        <c:axId val="381748272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="553335368"/>
+        <c:axId val="381747880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1906,7 +1906,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="553335760"/>
+        <c:crossAx val="381748272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1914,7 +1914,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="553335760"/>
+        <c:axId val="381748272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1925,7 +1925,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="553335368"/>
+        <c:crossAx val="381747880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -44461,7 +44461,7 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
@@ -44475,12 +44475,12 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32.25" customHeight="1">
       <c r="A2" s="50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
@@ -44496,12 +44496,12 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="286.5" customHeight="1">
       <c r="A4" s="52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
@@ -44517,12 +44517,12 @@
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="30" customFormat="1" ht="29.25" customHeight="1">
       <c r="A6" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -44538,12 +44538,12 @@
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="134.25" customHeight="1">
       <c r="A8" s="55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
@@ -44637,8 +44637,8 @@
   </sheetPr>
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44658,22 +44658,22 @@
     <row r="1" spans="1:13" ht="7.5" customHeight="1"/>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="250.5" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60" t="s">
-        <v>36</v>
+      <c r="C2" s="79"/>
+      <c r="D2" s="67" t="s">
+        <v>83</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -44731,22 +44731,22 @@
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="375" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60" t="s">
-        <v>51</v>
+      <c r="C7" s="79"/>
+      <c r="D7" s="67" t="s">
+        <v>50</v>
       </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="62"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="69"/>
     </row>
     <row r="8" spans="1:13" ht="8.25" customHeight="1">
       <c r="A8" s="5"/>
@@ -44757,112 +44757,112 @@
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="69"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="60"/>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="28.5" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63" t="s">
+      <c r="C10" s="73"/>
+      <c r="D10" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="63" t="s">
+      <c r="E10" s="80"/>
+      <c r="F10" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="79" t="s">
+      <c r="I10" s="75"/>
+      <c r="J10" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="80"/>
-      <c r="J10" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63" t="s">
+      <c r="K10" s="73"/>
+      <c r="L10" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="63"/>
+      <c r="M10" s="73"/>
     </row>
     <row r="11" spans="1:13" ht="42.75" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="65"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="77"/>
     </row>
     <row r="13" spans="1:13" ht="16.5">
-      <c r="B13" s="67" t="s">
-        <v>52</v>
+      <c r="B13" s="58" t="s">
+        <v>51</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="69"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="60"/>
     </row>
     <row r="14" spans="1:13" ht="51" customHeight="1">
-      <c r="B14" s="73" t="s">
-        <v>69</v>
+      <c r="B14" s="64" t="s">
+        <v>68</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="75"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="66"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="76" t="s">
-        <v>55</v>
+      <c r="B15" s="70" t="s">
+        <v>54</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="76" t="s">
-        <v>61</v>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="70" t="s">
+        <v>60</v>
       </c>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="78"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="40"/>
@@ -45089,36 +45089,36 @@
       <c r="M31" s="48"/>
     </row>
     <row r="33" spans="2:13" ht="16.5">
-      <c r="B33" s="67" t="s">
-        <v>62</v>
+      <c r="B33" s="58" t="s">
+        <v>61</v>
       </c>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="69"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="60"/>
     </row>
     <row r="34" spans="2:13" ht="33.75" customHeight="1">
-      <c r="B34" s="70" t="s">
-        <v>68</v>
+      <c r="B34" s="61" t="s">
+        <v>67</v>
       </c>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="72"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="63"/>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="40"/>
@@ -45346,17 +45346,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="D2:M2"/>
@@ -45370,6 +45359,17 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45404,7 +45404,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1">
@@ -45431,12 +45431,12 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" customHeight="1">
       <c r="A5" s="88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="89"/>
       <c r="C5" s="89"/>
@@ -45447,7 +45447,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1">
@@ -45456,7 +45456,7 @@
       </c>
       <c r="B7" s="86"/>
       <c r="C7" s="82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="83"/>
       <c r="E7" s="83"/>
@@ -45465,7 +45465,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="25.5">
@@ -45473,7 +45473,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>27</v>
@@ -45502,7 +45502,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -45567,7 +45567,7 @@
     </row>
     <row r="5" spans="1:7" ht="67.5" customHeight="1">
       <c r="A5" s="88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="89"/>
       <c r="C5" s="89"/>
@@ -45582,7 +45582,7 @@
       </c>
       <c r="B7" s="87"/>
       <c r="C7" s="94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="94"/>
       <c r="E7" s="94"/>
@@ -45594,7 +45594,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>27</v>
@@ -45675,7 +45675,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="96" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="97"/>
       <c r="D4" s="97"/>
@@ -45691,7 +45691,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -45730,7 +45730,7 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18">
       <c r="A2" s="95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="95"/>
     </row>
@@ -45809,7 +45809,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="100"/>
     </row>
@@ -45826,7 +45826,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -45900,7 +45900,7 @@
       <c r="B4" s="102"/>
       <c r="C4" s="103"/>
       <c r="D4" s="104" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="105"/>
       <c r="F4" s="105"/>
@@ -45914,22 +45914,22 @@
     </row>
     <row r="6" spans="1:13" ht="96.75" customHeight="1">
       <c r="A6" s="108" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="107"/>
       <c r="D6" s="107"/>
       <c r="E6" s="107"/>
       <c r="F6" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="107"/>
       <c r="H6" s="107"/>
       <c r="I6" s="107"/>
       <c r="J6" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K6" s="107"/>
       <c r="L6" s="107"/>
@@ -45938,7 +45938,7 @@
     <row r="7" spans="1:13" ht="45" customHeight="1">
       <c r="A7" s="108"/>
       <c r="B7" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="109"/>
       <c r="D7" s="110"/>
@@ -45978,13 +45978,13 @@
         <v>9</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L9" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -46046,21 +46046,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="36"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="38">
         <v>0</v>
@@ -46068,7 +46068,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="38">
         <v>0</v>
@@ -46076,7 +46076,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="38">
         <v>0</v>
@@ -46084,7 +46084,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="38">
         <v>0</v>
@@ -46092,20 +46092,20 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="38">
         <v>0</v>
@@ -46113,7 +46113,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="38">
         <v>0</v>
@@ -46121,7 +46121,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="38">
         <v>0</v>
@@ -46129,7 +46129,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="38">
         <v>0</v>
@@ -46137,7 +46137,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -46145,12 +46145,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="38">
         <v>0</v>
@@ -46158,7 +46158,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="38">
         <v>0</v>
@@ -46166,7 +46166,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="38">
         <v>0</v>
@@ -46174,7 +46174,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="38">
         <v>0</v>
@@ -46182,7 +46182,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="38">
         <v>0</v>
@@ -46190,7 +46190,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" s="38">
         <v>0</v>

--- a/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
+++ b/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="33" r:id="rId1"/>
@@ -17,13 +17,13 @@
     <sheet name="Software Lifecycles" sheetId="22" r:id="rId3"/>
     <sheet name="Hardware Lifecycles" sheetId="23" r:id="rId4"/>
     <sheet name="System Data" sheetId="30" r:id="rId5"/>
-    <sheet name="SOR Overlap With DHMSM" sheetId="28" r:id="rId6"/>
-    <sheet name="DHMSM Data Requirements" sheetId="26" r:id="rId7"/>
-    <sheet name="System Interfaces" sheetId="27" r:id="rId8"/>
-    <sheet name="Summary Charts" sheetId="34" r:id="rId9"/>
+    <sheet name="System BLU" sheetId="35" r:id="rId6"/>
+    <sheet name="SOR Overlap With DHMSM" sheetId="28" r:id="rId7"/>
+    <sheet name="DHMSM Data Requirements" sheetId="26" r:id="rId8"/>
+    <sheet name="System Interfaces" sheetId="27" r:id="rId9"/>
+    <sheet name="Summary Charts" sheetId="34" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
@@ -34,6 +34,7 @@
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
     <definedName name="Additional">[1]Data!$D$3:$D$15</definedName>
@@ -61,6 +62,7 @@
     <definedName name="HW" localSheetId="0">[4]SiteDB2!$L$2:$L$330</definedName>
     <definedName name="HW">[5]SiteDB2!$L$2:$L$330</definedName>
     <definedName name="I_O" localSheetId="0">#REF!</definedName>
+    <definedName name="I_O" localSheetId="5">#REF!</definedName>
     <definedName name="I_O" localSheetId="4">#REF!</definedName>
     <definedName name="I_O" localSheetId="1">#REF!</definedName>
     <definedName name="I_O">#REF!</definedName>
@@ -74,12 +76,12 @@
     <definedName name="Portal_ROI">[2]BOM!$N$46</definedName>
     <definedName name="Portal_SUM">'[2]POM 2 Enabler - FY12'!$N$102</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'System Overview'!$A$2:$M$11</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'DHMSM Data Requirements'!$6:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'DHMSM Data Requirements'!$6:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Hardware Lifecycles'!$9:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Software Lifecycles'!$9:$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'SOR Overlap With DHMSM'!$6:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'SOR Overlap With DHMSM'!$6:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'System Data'!$6:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">'System Interfaces'!$9:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">'System Interfaces'!$9:$9</definedName>
     <definedName name="Priority3">[6]Data1!$B$4:$B$6</definedName>
     <definedName name="ProcContractMonths">'[2]New Timeline'!$A$22</definedName>
     <definedName name="RangeBLU">[7]BLUBackEnd!$G$5:$G$49</definedName>
@@ -97,6 +99,7 @@
     <definedName name="System">'[10]2. System Information'!$D$3</definedName>
     <definedName name="Teams">[2]Cheat!$A$38:$A$39</definedName>
     <definedName name="Type" localSheetId="0">#REF!</definedName>
+    <definedName name="Type" localSheetId="5">#REF!</definedName>
     <definedName name="Type" localSheetId="4">#REF!</definedName>
     <definedName name="Type" localSheetId="1">#REF!</definedName>
     <definedName name="Type">#REF!</definedName>
@@ -109,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="88">
   <si>
     <t>Garrison / Theater</t>
   </si>
@@ -370,15 +373,6 @@
     <t xml:space="preserve">This section displays the data objects that @SYSTEM@ is the source of record for and that the DHMSM capability will be required to consume. </t>
   </si>
   <si>
-    <t>This report details the characteristics and modernization activities requried to transition the LPNI system to the future-state environment. The report provides the following information and analysis regarding the LPNI system:
-1. System Overview
-2. System Hardware and Software Lifecycles
-3. Modernization Timeline
-4. System Data Requirements and Data Provenance
-5. EHR Data Requirements
-6. System Interface Requirements</t>
-  </si>
-  <si>
     <t>Proposed Temporary Interfaces with DHMSM - Legacy Consumer</t>
   </si>
   <si>
@@ -394,6 +388,27 @@
     <t>The Office of Transition Management (OTM) Transition Application Planning (TAP) coordinated with the Defense Health Clinical Systems (DHCS) and Defense Health Services Systems (DHSS) program offices, in addition to the tri-Services, to collect technical and functional data regarding their information systems, in order to fully characterize the legacy DHA IM/IT portfolio. 
 Using this data, OTM provided detailed analysis regarding each legacy system to the Functional Advisory Council (FAC), which made transition decisions that define if each system would be replaced by the future-state EHR (high probability systems) or would endure to support the future-state EHR (low probability systems).
 This report focuses on low probability systems that will not require integration with the future-state EHR and provides analytical insights that specify the activities required for the system highlighted in this report to transition to the future state environment.</t>
+  </si>
+  <si>
+    <t>System Functionality</t>
+  </si>
+  <si>
+    <t>This section displays the business logic units that @SYSTEM@ provides. Business logic units are defined as automation or system functionality that is provided by @SYSTEM@.</t>
+  </si>
+  <si>
+    <t>Business Logic Unit</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>This report details the characteristics and modernization activities requried to transition the LPNI system to the future-state environment. The report provides the following information and analysis regarding the LPNI system:
+1. System Overview
+2. System Hardware and Software Lifecycles
+3. System Data Requirements and Data Provenance
+4. System Provided Business Logic
+5. EHR Data Requirements
+6. System Interface Requirements</t>
   </si>
 </sst>
 </file>
@@ -853,7 +868,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -951,6 +966,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1412,11 +1436,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="381745528"/>
-        <c:axId val="381745920"/>
+        <c:axId val="421927872"/>
+        <c:axId val="421928264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="381745528"/>
+        <c:axId val="421927872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1426,7 +1450,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="381745920"/>
+        <c:crossAx val="421928264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1434,7 +1458,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="381745920"/>
+        <c:axId val="421928264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,7 +1469,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="381745528"/>
+        <c:crossAx val="421927872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1578,11 +1602,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="381746704"/>
-        <c:axId val="381747096"/>
+        <c:axId val="421929048"/>
+        <c:axId val="421929440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="381746704"/>
+        <c:axId val="421929048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,7 +1616,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="381747096"/>
+        <c:crossAx val="421929440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1600,7 +1624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="381747096"/>
+        <c:axId val="421929440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1611,7 +1635,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="381746704"/>
+        <c:crossAx val="421929048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1892,11 +1916,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="381747880"/>
-        <c:axId val="381748272"/>
+        <c:axId val="421930224"/>
+        <c:axId val="421930616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="381747880"/>
+        <c:axId val="421930224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1906,7 +1930,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="381748272"/>
+        <c:crossAx val="421930616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1914,7 +1938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="381748272"/>
+        <c:axId val="421930616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1925,7 +1949,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="381747880"/>
+        <c:crossAx val="421930224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -44461,8 +44485,8 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -44479,20 +44503,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="32.25" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -44500,20 +44524,20 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="286.5" customHeight="1">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="54"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="57"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -44521,20 +44545,20 @@
       </c>
     </row>
     <row r="6" spans="1:12" s="30" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -44542,20 +44566,20 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="134.25" customHeight="1">
-      <c r="A8" s="55" t="s">
-        <v>78</v>
+      <c r="A8" s="58" t="s">
+        <v>87</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="57"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="60"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="31"/>
@@ -44629,6 +44653,181 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="36"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="38">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
@@ -44637,7 +44836,7 @@
   </sheetPr>
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -44658,22 +44857,22 @@
     <row r="1" spans="1:13" ht="7.5" customHeight="1"/>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="250.5" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="67" t="s">
-        <v>83</v>
+      <c r="C2" s="82"/>
+      <c r="D2" s="70" t="s">
+        <v>82</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="69"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="72"/>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -44692,20 +44891,20 @@
     </row>
     <row r="4" spans="1:13" ht="32.25" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
     </row>
     <row r="5" spans="1:13" ht="7.5" customHeight="1">
       <c r="A5" s="5"/>
@@ -44731,22 +44930,22 @@
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="375" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="67" t="s">
+      <c r="C7" s="82"/>
+      <c r="D7" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="69"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="72"/>
     </row>
     <row r="8" spans="1:13" ht="8.25" customHeight="1">
       <c r="A8" s="5"/>
@@ -44757,112 +44956,112 @@
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="60"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="63"/>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="28.5" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73" t="s">
+      <c r="C10" s="76"/>
+      <c r="D10" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="73" t="s">
+      <c r="E10" s="83"/>
+      <c r="F10" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="74" t="s">
+      <c r="G10" s="76"/>
+      <c r="H10" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="75"/>
-      <c r="J10" s="73" t="s">
+      <c r="I10" s="78"/>
+      <c r="J10" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73" t="s">
+      <c r="K10" s="76"/>
+      <c r="L10" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="73"/>
+      <c r="M10" s="76"/>
     </row>
     <row r="11" spans="1:13" ht="42.75" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="77"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80"/>
     </row>
     <row r="13" spans="1:13" ht="16.5">
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="60"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="63"/>
     </row>
     <row r="14" spans="1:13" ht="51" customHeight="1">
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="66"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="69"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="70" t="s">
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="72"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="75"/>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="40"/>
@@ -45089,36 +45288,36 @@
       <c r="M31" s="48"/>
     </row>
     <row r="33" spans="2:13" ht="16.5">
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="60"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="63"/>
     </row>
     <row r="34" spans="2:13" ht="33.75" customHeight="1">
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="63"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="66"/>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="40"/>
@@ -45408,26 +45607,26 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
@@ -45435,15 +45634,15 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" customHeight="1">
-      <c r="A5" s="88" t="s">
-        <v>80</v>
+      <c r="A5" s="91" t="s">
+        <v>79</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="90"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="93"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
@@ -45451,17 +45650,17 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="82" t="s">
+      <c r="B7" s="89"/>
+      <c r="C7" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="84"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="87"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
@@ -45544,50 +45743,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="96"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
     </row>
     <row r="5" spans="1:7" ht="67.5" customHeight="1">
-      <c r="A5" s="88" t="s">
-        <v>81</v>
+      <c r="A5" s="91" t="s">
+        <v>80</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="90"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="93"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="94" t="s">
+      <c r="B7" s="90"/>
+      <c r="C7" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
     </row>
     <row r="9" spans="1:7" ht="25.5">
       <c r="A9" s="33" t="s">
@@ -45657,34 +45856,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1"/>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
     </row>
     <row r="4" spans="1:10" ht="53.25" customHeight="1">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="96" t="s">
-        <v>82</v>
+      <c r="B4" s="99" t="s">
+        <v>81</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="98"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="101"/>
     </row>
     <row r="6" spans="1:10" ht="39.75" customHeight="1">
       <c r="A6" s="33" t="s">
@@ -45713,6 +45912,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF366092"/>
+  </sheetPr>
+  <dimension ref="A2:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+    </row>
+    <row r="4" spans="1:10" ht="45.75" customHeight="1">
+      <c r="A4" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="100"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF366092"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:B7"/>
@@ -45729,10 +45999,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="18">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="95"/>
+      <c r="B2" s="98"/>
     </row>
     <row r="3" spans="1:2" ht="18">
       <c r="A3" s="12"/>
@@ -45772,7 +46042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF366092"/>
@@ -45793,11 +46063,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="18">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
     </row>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="12"/>
@@ -45808,10 +46078,10 @@
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="100"/>
+      <c r="C4" s="103"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2"/>
@@ -45845,7 +46115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF366092"/>
@@ -45877,74 +46147,74 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1"/>
     <row r="2" spans="1:13" ht="18" customHeight="1">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="104" t="s">
+      <c r="B4" s="105"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="106"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="109"/>
     </row>
     <row r="6" spans="1:13" ht="96.75" customHeight="1">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="111" t="s">
         <v>72</v>
       </c>
       <c r="B6" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
       <c r="J6" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110"/>
     </row>
     <row r="7" spans="1:13" ht="45" customHeight="1">
-      <c r="A7" s="108"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="111"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="114"/>
     </row>
     <row r="9" spans="1:13" ht="39.75" customHeight="1">
       <c r="A9" s="33" t="s">
@@ -46025,179 +46295,4 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:C25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="38.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="36"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="38">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
+++ b/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksmart\workspace64bitNew\SEMOSS_2014\export\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bgalbraith\workspace\Semoss\export\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834"/>
+    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="33" r:id="rId1"/>
@@ -1000,6 +1000,33 @@
     <xf numFmtId="0" fontId="24" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1027,15 +1054,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1045,28 +1063,10 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1436,11 +1436,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="421927872"/>
-        <c:axId val="421928264"/>
+        <c:axId val="419553568"/>
+        <c:axId val="419553960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="421927872"/>
+        <c:axId val="419553568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1450,7 +1450,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="421928264"/>
+        <c:crossAx val="419553960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1458,7 +1458,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="421928264"/>
+        <c:axId val="419553960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,7 +1469,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="421927872"/>
+        <c:crossAx val="419553568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1602,11 +1602,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="421929048"/>
-        <c:axId val="421929440"/>
+        <c:axId val="297743736"/>
+        <c:axId val="297744128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="421929048"/>
+        <c:axId val="297743736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,7 +1616,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="421929440"/>
+        <c:crossAx val="297744128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1624,7 +1624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="421929440"/>
+        <c:axId val="297744128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1635,7 +1635,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="421929048"/>
+        <c:crossAx val="297743736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1916,11 +1916,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="421930224"/>
-        <c:axId val="421930616"/>
+        <c:axId val="297744912"/>
+        <c:axId val="413011816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="421930224"/>
+        <c:axId val="297744912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1930,7 +1930,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="421930616"/>
+        <c:crossAx val="413011816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1938,7 +1938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="421930616"/>
+        <c:axId val="413011816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,7 +1949,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="421930224"/>
+        <c:crossAx val="297744912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2222,19 +2222,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>772211</xdr:colOff>
+      <xdr:colOff>1028700</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>552188</xdr:rowOff>
+      <xdr:rowOff>522187</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="141" name="Picture 140"/>
+        <xdr:cNvPr id="7" name="Picture 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2247,8 +2247,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2009775" y="2324100"/>
-          <a:ext cx="6153836" cy="495038"/>
+          <a:off x="1714500" y="2286000"/>
+          <a:ext cx="6705600" cy="503137"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -44485,7 +44485,7 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:L8"/>
     </sheetView>
   </sheetViews>
@@ -44857,22 +44857,22 @@
     <row r="1" spans="1:13" ht="7.5" customHeight="1"/>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="250.5" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="65"/>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -44930,22 +44930,22 @@
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="375" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="70" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="72"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="65"/>
     </row>
     <row r="8" spans="1:13" ht="8.25" customHeight="1">
       <c r="A8" s="5"/>
@@ -44956,112 +44956,112 @@
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="63"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="72"/>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="28.5" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76" t="s">
+      <c r="C10" s="66"/>
+      <c r="D10" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="83"/>
-      <c r="F10" s="76" t="s">
+      <c r="E10" s="69"/>
+      <c r="F10" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="76"/>
-      <c r="H10" s="77" t="s">
+      <c r="G10" s="66"/>
+      <c r="H10" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="78"/>
-      <c r="J10" s="76" t="s">
+      <c r="I10" s="83"/>
+      <c r="J10" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76" t="s">
+      <c r="K10" s="66"/>
+      <c r="L10" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="76"/>
+      <c r="M10" s="66"/>
     </row>
     <row r="11" spans="1:13" ht="42.75" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="68"/>
     </row>
     <row r="13" spans="1:13" ht="16.5">
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="63"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
     </row>
     <row r="14" spans="1:13" ht="51" customHeight="1">
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="69"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="78"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="73" t="s">
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="75"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="40"/>
@@ -45288,36 +45288,36 @@
       <c r="M31" s="48"/>
     </row>
     <row r="33" spans="2:13" ht="16.5">
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="63"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="72"/>
     </row>
     <row r="34" spans="2:13" ht="33.75" customHeight="1">
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="66"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="75"/>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="40"/>
@@ -45545,6 +45545,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="D2:M2"/>
@@ -45558,17 +45569,6 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46123,7 +46123,7 @@
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>

--- a/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
+++ b/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="33" r:id="rId1"/>
@@ -19,11 +19,11 @@
     <sheet name="System Data" sheetId="30" r:id="rId5"/>
     <sheet name="System BLU" sheetId="35" r:id="rId6"/>
     <sheet name="SOR Overlap With DHMSM" sheetId="28" r:id="rId7"/>
-    <sheet name="DHMSM Data Requirements" sheetId="26" r:id="rId8"/>
-    <sheet name="System Interfaces" sheetId="27" r:id="rId9"/>
-    <sheet name="Summary Charts" sheetId="34" r:id="rId10"/>
+    <sheet name="System Interfaces" sheetId="27" r:id="rId8"/>
+    <sheet name="Summary Charts" sheetId="34" r:id="rId9"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
@@ -34,7 +34,6 @@
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
-    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
     <definedName name="Additional">[1]Data!$D$3:$D$15</definedName>
@@ -76,12 +75,11 @@
     <definedName name="Portal_ROI">[2]BOM!$N$46</definedName>
     <definedName name="Portal_SUM">'[2]POM 2 Enabler - FY12'!$N$102</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'System Overview'!$A$2:$M$11</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">'DHMSM Data Requirements'!$6:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Hardware Lifecycles'!$9:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Software Lifecycles'!$9:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'SOR Overlap With DHMSM'!$6:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'System Data'!$6:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="8">'System Interfaces'!$9:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'System Interfaces'!$9:$9</definedName>
     <definedName name="Priority3">[6]Data1!$B$4:$B$6</definedName>
     <definedName name="ProcContractMonths">'[2]New Timeline'!$A$22</definedName>
     <definedName name="RangeBLU">[7]BLUBackEnd!$G$5:$G$49</definedName>
@@ -112,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="84">
   <si>
     <t>Garrison / Theater</t>
   </si>
@@ -136,9 +134,6 @@
   </si>
   <si>
     <t>DHMSM SOR?</t>
-  </si>
-  <si>
-    <t>Capability</t>
   </si>
   <si>
     <t>Services</t>
@@ -207,9 +202,6 @@
     <t>System Data</t>
   </si>
   <si>
-    <t>DHMSM Data Requirements</t>
-  </si>
-  <si>
     <t>System Interfaces</t>
   </si>
   <si>
@@ -238,9 +230,6 @@
   </si>
   <si>
     <t>End of Support Date</t>
-  </si>
-  <si>
-    <t>System Source of Record Business Rule</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -272,9 +261,6 @@
       </rPr>
       <t>(expected @DATE@)</t>
     </r>
-  </si>
-  <si>
-    <t>Provided or Consumed</t>
   </si>
   <si>
     <t>Background</t>
@@ -370,9 +356,6 @@
     <t>Key</t>
   </si>
   <si>
-    <t xml:space="preserve">This section displays the data objects that @SYSTEM@ is the source of record for and that the DHMSM capability will be required to consume. </t>
-  </si>
-  <si>
     <t>Proposed Temporary Interfaces with DHMSM - Legacy Consumer</t>
   </si>
   <si>
@@ -380,9 +363,6 @@
   </si>
   <si>
     <t>Hardware characteristics are based upon TAP data submissions provided by the DHA and Services program offices for each of their systems. Annual hardware sustainment costs were provided by the system owners as part of their budgets. Projected product upgrade costs are taken from industry pricing where available. This tab is broken down into three points in time (current state, IOC, and FOC for DHMSM) to illustrate the changing lifecycle of the system’s products over time and to more closely detail transition plans as information is made available.</t>
-  </si>
-  <si>
-    <t>This section displays the data objects that @SYSTEM@ is a source of record of and consumes. For each data object @SYSTEM@ is a source of record of, the number in the @SYSTEM@ column represents the number of systems the data object is passed to. For each data object @SYSTEM@ consumes, the highlighted cells depict the systems @SYSTEM@ receives the data from. The numbers in these cells represent the total number of systems they pass the data objects to.</t>
   </si>
   <si>
     <t>The Office of Transition Management (OTM) Transition Application Planning (TAP) coordinated with the Defense Health Clinical Systems (DHCS) and Defense Health Services Systems (DHSS) program offices, in addition to the tri-Services, to collect technical and functional data regarding their information systems, in order to fully characterize the legacy DHA IM/IT portfolio. 
@@ -409,6 +389,12 @@
 4. System Provided Business Logic
 5. EHR Data Requirements
 6. System Interface Requirements</t>
+  </si>
+  <si>
+    <t>This section displays the data objects that @SYSTEM@ creates, reads, or modifies. This information is used in concert with the @SYSTEM@ interface control documents to define what data @SYSTEM is a source of record of and what data @SYSTEM@ consumes.</t>
+  </si>
+  <si>
+    <t>C/R/M</t>
   </si>
 </sst>
 </file>
@@ -868,7 +854,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -948,9 +934,6 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -976,6 +959,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -999,33 +985,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1054,6 +1013,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1063,10 +1031,28 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1121,12 +1107,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1436,11 +1416,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="419553568"/>
-        <c:axId val="419553960"/>
+        <c:axId val="385125280"/>
+        <c:axId val="385125672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="419553568"/>
+        <c:axId val="385125280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1450,7 +1430,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="419553960"/>
+        <c:crossAx val="385125672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1458,7 +1438,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="419553960"/>
+        <c:axId val="385125672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,7 +1449,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="419553568"/>
+        <c:crossAx val="385125280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1602,11 +1582,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="297743736"/>
-        <c:axId val="297744128"/>
+        <c:axId val="385126456"/>
+        <c:axId val="385126848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="297743736"/>
+        <c:axId val="385126456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,7 +1596,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="297744128"/>
+        <c:crossAx val="385126848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1624,7 +1604,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="297744128"/>
+        <c:axId val="385126848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1635,7 +1615,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="297743736"/>
+        <c:crossAx val="385126456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1916,11 +1896,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="297744912"/>
-        <c:axId val="413011816"/>
+        <c:axId val="385127632"/>
+        <c:axId val="385128024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="297744912"/>
+        <c:axId val="385127632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1930,7 +1910,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="413011816"/>
+        <c:crossAx val="385128024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1938,7 +1918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="413011816"/>
+        <c:axId val="385128024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,7 +1929,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="297744912"/>
+        <c:crossAx val="385127632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -44499,12 +44479,12 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32.25" customHeight="1">
       <c r="A2" s="53" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B2" s="54"/>
       <c r="C2" s="54"/>
@@ -44520,12 +44500,12 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="286.5" customHeight="1">
       <c r="A4" s="55" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B4" s="56"/>
       <c r="C4" s="56"/>
@@ -44541,12 +44521,12 @@
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="30" customFormat="1" ht="29.25" customHeight="1">
       <c r="A6" s="53" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" s="54"/>
       <c r="C6" s="54"/>
@@ -44562,12 +44542,12 @@
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="134.25" customHeight="1">
       <c r="A8" s="58" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -44653,181 +44633,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:C25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="38.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="36"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="38">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
@@ -44857,22 +44662,22 @@
     <row r="1" spans="1:13" ht="7.5" customHeight="1"/>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="250.5" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="61" t="s">
-        <v>35</v>
+      <c r="B2" s="81" t="s">
+        <v>33</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63" t="s">
-        <v>82</v>
+      <c r="C2" s="82"/>
+      <c r="D2" s="70" t="s">
+        <v>76</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="72"/>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -44892,7 +44697,7 @@
     <row r="4" spans="1:13" ht="32.25" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -44930,22 +44735,22 @@
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="375" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="61" t="s">
-        <v>29</v>
+      <c r="B7" s="81" t="s">
+        <v>28</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63" t="s">
-        <v>50</v>
+      <c r="C7" s="82"/>
+      <c r="D7" s="70" t="s">
+        <v>46</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="65"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="72"/>
     </row>
     <row r="8" spans="1:13" ht="8.25" customHeight="1">
       <c r="A8" s="5"/>
@@ -44956,606 +44761,595 @@
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="72"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="63"/>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="28.5" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66" t="s">
+      <c r="C10" s="76"/>
+      <c r="D10" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="66" t="s">
+      <c r="E10" s="83"/>
+      <c r="F10" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="78"/>
+      <c r="J10" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="83"/>
-      <c r="J10" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66" t="s">
+      <c r="K10" s="76"/>
+      <c r="L10" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="66"/>
+      <c r="M10" s="76"/>
     </row>
     <row r="11" spans="1:13" ht="42.75" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="68"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80"/>
     </row>
     <row r="13" spans="1:13" ht="16.5">
-      <c r="B13" s="70" t="s">
-        <v>51</v>
+      <c r="B13" s="61" t="s">
+        <v>47</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="72"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="63"/>
     </row>
     <row r="14" spans="1:13" ht="51" customHeight="1">
-      <c r="B14" s="76" t="s">
-        <v>68</v>
+      <c r="B14" s="67" t="s">
+        <v>64</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="78"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="69"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="79" t="s">
-        <v>54</v>
+      <c r="B15" s="73" t="s">
+        <v>50</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="79" t="s">
-        <v>60</v>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="73" t="s">
+        <v>56</v>
       </c>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="75"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="42"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="41"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="45"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="44"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="45"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="44"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="45"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="44"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="45"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="45"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="44"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="45"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="44"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="45"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="44"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="45"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="44"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="45"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="44"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="45"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="44"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="45"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="44"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="45"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="44"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="45"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="44"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="45"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="44"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="48"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="47"/>
     </row>
     <row r="33" spans="2:13" ht="16.5">
-      <c r="B33" s="70" t="s">
-        <v>61</v>
+      <c r="B33" s="61" t="s">
+        <v>57</v>
       </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="72"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="63"/>
     </row>
     <row r="34" spans="2:13" ht="33.75" customHeight="1">
-      <c r="B34" s="73" t="s">
-        <v>67</v>
+      <c r="B34" s="64" t="s">
+        <v>63</v>
       </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="75"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="66"/>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="40"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="42"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="41"/>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="43"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="45"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="44"/>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="43"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="45"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="44"/>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="43"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="45"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="44"/>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="43"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="45"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="44"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="43"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="45"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="44"/>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="43"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="45"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="44"/>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="43"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="45"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="44"/>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="43"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="45"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="44"/>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="43"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="45"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="44"/>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="43"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="45"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="44"/>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="43"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="45"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="44"/>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="43"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="45"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="44"/>
     </row>
     <row r="48" spans="2:13">
-      <c r="B48" s="43"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="45"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="44"/>
     </row>
     <row r="49" spans="2:13">
-      <c r="B49" s="43"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="44"/>
-      <c r="K49" s="44"/>
-      <c r="L49" s="44"/>
-      <c r="M49" s="45"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="44"/>
     </row>
     <row r="50" spans="2:13">
-      <c r="B50" s="46"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="48"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="D2:M2"/>
@@ -45569,6 +45363,17 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45603,12 +45408,12 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -45619,7 +45424,7 @@
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="90"/>
       <c r="C3" s="90"/>
@@ -45630,12 +45435,12 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" customHeight="1">
       <c r="A5" s="91" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B5" s="92"/>
       <c r="C5" s="92"/>
@@ -45646,16 +45451,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1">
       <c r="A7" s="88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="89"/>
       <c r="C7" s="85" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D7" s="86"/>
       <c r="E7" s="86"/>
@@ -45664,30 +45469,30 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="25.5">
       <c r="A9" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="33" t="s">
+      <c r="E9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="F9" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="33" t="s">
-        <v>19</v>
-      </c>
       <c r="G9" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -45701,7 +45506,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -45744,7 +45549,7 @@
   <sheetData>
     <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="95"/>
       <c r="C2" s="95"/>
@@ -45766,7 +45571,7 @@
     </row>
     <row r="5" spans="1:7" ht="67.5" customHeight="1">
       <c r="A5" s="91" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B5" s="92"/>
       <c r="C5" s="92"/>
@@ -45777,11 +45582,11 @@
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1">
       <c r="A7" s="90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="97" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" s="97"/>
       <c r="E7" s="97"/>
@@ -45790,25 +45595,25 @@
     </row>
     <row r="9" spans="1:7" ht="25.5">
       <c r="A9" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="F9" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="33" t="s">
-        <v>19</v>
-      </c>
       <c r="G9" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -45842,8 +45647,8 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection sqref="A1:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -45857,7 +45662,7 @@
     <row r="1" spans="1:10" ht="18" customHeight="1"/>
     <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="98"/>
       <c r="C2" s="98"/>
@@ -45870,11 +45675,11 @@
       <c r="J2" s="98"/>
     </row>
     <row r="4" spans="1:10" ht="53.25" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="52" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -45890,7 +45695,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -45929,40 +45734,40 @@
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="98" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B2" s="98"/>
       <c r="C2" s="98"/>
       <c r="D2" s="98"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="4" spans="1:10" ht="45.75" customHeight="1">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="49" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C4" s="100"/>
       <c r="D4" s="101"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="33" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -46000,7 +45805,7 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18">
       <c r="A2" s="98" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="98"/>
     </row>
@@ -46013,7 +45818,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -46048,83 +45853,10 @@
     <tabColor rgb="FF366092"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C7"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="67.28515625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" ht="18">
-      <c r="A2" s="98" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-    </row>
-    <row r="3" spans="1:3" ht="18">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:3" ht="25.5" customHeight="1">
-      <c r="A4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="103"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B4:C4"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="78" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF366092"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -46148,7 +45880,7 @@
     <row r="1" spans="1:13" ht="18" customHeight="1"/>
     <row r="2" spans="1:13" ht="18" customHeight="1">
       <c r="A2" s="98" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="98"/>
       <c r="C2" s="98"/>
@@ -46164,97 +45896,97 @@
       <c r="M2" s="98"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="107" t="s">
+      <c r="B4" s="103"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="107"/>
+    </row>
+    <row r="6" spans="1:13" ht="96.75" customHeight="1">
+      <c r="A6" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="109"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
     </row>
-    <row r="6" spans="1:13" ht="96.75" customHeight="1">
-      <c r="A6" s="111" t="s">
+    <row r="7" spans="1:13" ht="45" customHeight="1">
+      <c r="A7" s="109"/>
+      <c r="B7" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-    </row>
-    <row r="7" spans="1:13" ht="45" customHeight="1">
-      <c r="A7" s="111"/>
-      <c r="B7" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="114"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="112"/>
     </row>
     <row r="9" spans="1:13" ht="39.75" customHeight="1">
       <c r="A9" s="33" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="H9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="33" t="s">
-        <v>14</v>
-      </c>
       <c r="I9" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L9" s="34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -46274,7 +46006,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="K11" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
@@ -46295,4 +46027,179 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="35"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
+++ b/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bgalbraith\workspace\Semoss\export\Reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834" firstSheet="1" activeTab="4"/>
   </bookViews>
@@ -391,10 +386,10 @@
 6. System Interface Requirements</t>
   </si>
   <si>
-    <t>This section displays the data objects that @SYSTEM@ creates, reads, or modifies. This information is used in concert with the @SYSTEM@ interface control documents to define what data @SYSTEM is a source of record of and what data @SYSTEM@ consumes.</t>
+    <t>C/R/M</t>
   </si>
   <si>
-    <t>C/R/M</t>
+    <t>This section displays the data objects that @SYSTEM@ creates, reads, or modifies. This information is used in concert with the @SYSTEM@ interface control documents to define what data @SYSTEM@ is a source of record of and what data @SYSTEM@ consumes.</t>
   </si>
 </sst>
 </file>
@@ -986,6 +981,33 @@
     <xf numFmtId="0" fontId="24" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1013,15 +1035,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1031,28 +1044,10 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1416,11 +1411,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="385125280"/>
-        <c:axId val="385125672"/>
+        <c:axId val="234134912"/>
+        <c:axId val="234140800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="385125280"/>
+        <c:axId val="234134912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1430,7 +1425,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="385125672"/>
+        <c:crossAx val="234140800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1438,7 +1433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="385125672"/>
+        <c:axId val="234140800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1449,7 +1444,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="385125280"/>
+        <c:crossAx val="234134912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1582,11 +1577,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="385126456"/>
-        <c:axId val="385126848"/>
+        <c:axId val="234182528"/>
+        <c:axId val="234184064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="385126456"/>
+        <c:axId val="234182528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1596,7 +1591,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="385126848"/>
+        <c:crossAx val="234184064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1604,7 +1599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="385126848"/>
+        <c:axId val="234184064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,7 +1610,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="385126456"/>
+        <c:crossAx val="234182528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1896,11 +1891,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="385127632"/>
-        <c:axId val="385128024"/>
+        <c:axId val="236542592"/>
+        <c:axId val="236544384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="385127632"/>
+        <c:axId val="236542592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1910,7 +1905,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="385128024"/>
+        <c:crossAx val="236544384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1918,7 +1913,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="385128024"/>
+        <c:axId val="236544384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1929,7 +1924,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="385127632"/>
+        <c:crossAx val="236542592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -44215,7 +44210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -44250,7 +44245,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -44662,22 +44657,22 @@
     <row r="1" spans="1:13" ht="7.5" customHeight="1"/>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="250.5" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="65"/>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -44735,22 +44730,22 @@
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="375" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="70" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="72"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="65"/>
     </row>
     <row r="8" spans="1:13" ht="8.25" customHeight="1">
       <c r="A8" s="5"/>
@@ -44761,112 +44756,112 @@
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="63"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="72"/>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="28.5" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76" t="s">
+      <c r="C10" s="66"/>
+      <c r="D10" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="83"/>
-      <c r="F10" s="76" t="s">
+      <c r="E10" s="69"/>
+      <c r="F10" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="76"/>
-      <c r="H10" s="77" t="s">
+      <c r="G10" s="66"/>
+      <c r="H10" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="78"/>
-      <c r="J10" s="76" t="s">
+      <c r="I10" s="83"/>
+      <c r="J10" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76" t="s">
+      <c r="K10" s="66"/>
+      <c r="L10" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="76"/>
+      <c r="M10" s="66"/>
     </row>
     <row r="11" spans="1:13" ht="42.75" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="68"/>
     </row>
     <row r="13" spans="1:13" ht="16.5">
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="63"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
     </row>
     <row r="14" spans="1:13" ht="51" customHeight="1">
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="69"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="78"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="73" t="s">
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="75"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="39"/>
@@ -45093,36 +45088,36 @@
       <c r="M31" s="47"/>
     </row>
     <row r="33" spans="2:13" ht="16.5">
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="63"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="72"/>
     </row>
     <row r="34" spans="2:13" ht="33.75" customHeight="1">
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="66"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="75"/>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="39"/>
@@ -45350,6 +45345,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="D2:M2"/>
@@ -45363,17 +45369,6 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45648,7 +45643,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection sqref="A1:J7"/>
+      <selection activeCell="B4" sqref="B4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -45679,7 +45674,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -45695,7 +45690,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:10">

--- a/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
+++ b/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="33" r:id="rId1"/>
+    <sheet name="Report Overview" sheetId="33" r:id="rId1"/>
     <sheet name="System Overview" sheetId="21" r:id="rId2"/>
     <sheet name="Software Lifecycles" sheetId="22" r:id="rId3"/>
     <sheet name="Hardware Lifecycles" sheetId="23" r:id="rId4"/>
@@ -200,9 +200,6 @@
     <t>System Interfaces</t>
   </si>
   <si>
-    <t>This section displays data objects for which @SYSTEM@ is Source of Record (SOR) and which of those that DHMSM is also SOR for.</t>
-  </si>
-  <si>
     <t>System Name</t>
   </si>
   <si>
@@ -390,6 +387,9 @@
   </si>
   <si>
     <t>This section displays the data objects that @SYSTEM@ creates, reads, or modifies. This information is used in concert with the @SYSTEM@ interface control documents to define what data @SYSTEM@ is a source of record of and what data @SYSTEM@ consumes.</t>
+  </si>
+  <si>
+    <t>This section displays data objects for which @SYSTEM@ is Source of Record (SOR) and which of those DHMSM is expected to become the SOR for in the future.</t>
   </si>
 </sst>
 </file>
@@ -1411,11 +1411,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="234134912"/>
-        <c:axId val="234140800"/>
+        <c:axId val="200570752"/>
+        <c:axId val="200572288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="234134912"/>
+        <c:axId val="200570752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1425,7 +1425,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234140800"/>
+        <c:crossAx val="200572288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1433,7 +1433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="234140800"/>
+        <c:axId val="200572288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1444,7 +1444,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234134912"/>
+        <c:crossAx val="200570752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1577,11 +1577,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="234182528"/>
-        <c:axId val="234184064"/>
+        <c:axId val="204804096"/>
+        <c:axId val="204806784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="234182528"/>
+        <c:axId val="204804096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1591,7 +1591,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234184064"/>
+        <c:crossAx val="204806784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1599,7 +1599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="234184064"/>
+        <c:axId val="204806784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1610,7 +1610,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234182528"/>
+        <c:crossAx val="204804096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1891,11 +1891,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="236542592"/>
-        <c:axId val="236544384"/>
+        <c:axId val="208124160"/>
+        <c:axId val="210645376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="236542592"/>
+        <c:axId val="208124160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1905,7 +1905,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236544384"/>
+        <c:crossAx val="210645376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1913,7 +1913,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="236544384"/>
+        <c:axId val="210645376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1924,7 +1924,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236542592"/>
+        <c:crossAx val="208124160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -44460,8 +44460,8 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:L8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -44474,12 +44474,12 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32.25" customHeight="1">
       <c r="A2" s="53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="54"/>
       <c r="C2" s="54"/>
@@ -44495,12 +44495,12 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="286.5" customHeight="1">
       <c r="A4" s="55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="56"/>
       <c r="C4" s="56"/>
@@ -44516,12 +44516,12 @@
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="30" customFormat="1" ht="29.25" customHeight="1">
       <c r="A6" s="53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="54"/>
       <c r="C6" s="54"/>
@@ -44537,12 +44537,12 @@
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="134.25" customHeight="1">
       <c r="A8" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -44658,11 +44658,11 @@
     <row r="2" spans="1:13" s="4" customFormat="1" ht="250.5" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="64"/>
       <c r="F2" s="64"/>
@@ -44692,7 +44692,7 @@
     <row r="4" spans="1:13" ht="32.25" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -44735,7 +44735,7 @@
       </c>
       <c r="C7" s="62"/>
       <c r="D7" s="63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="64"/>
       <c r="F7" s="64"/>
@@ -44782,15 +44782,15 @@
       </c>
       <c r="E10" s="69"/>
       <c r="F10" s="66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="66"/>
       <c r="H10" s="82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="83"/>
       <c r="J10" s="66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10" s="66"/>
       <c r="L10" s="66" t="s">
@@ -44815,7 +44815,7 @@
     </row>
     <row r="13" spans="1:13" ht="16.5">
       <c r="B13" s="70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="71"/>
       <c r="D13" s="71"/>
@@ -44831,7 +44831,7 @@
     </row>
     <row r="14" spans="1:13" ht="51" customHeight="1">
       <c r="B14" s="76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="77"/>
       <c r="D14" s="77"/>
@@ -44847,7 +44847,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="B15" s="79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="80"/>
       <c r="D15" s="80"/>
@@ -44855,7 +44855,7 @@
       <c r="F15" s="80"/>
       <c r="G15" s="81"/>
       <c r="H15" s="79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I15" s="80"/>
       <c r="J15" s="80"/>
@@ -45089,7 +45089,7 @@
     </row>
     <row r="33" spans="2:13" ht="16.5">
       <c r="B33" s="70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="71"/>
       <c r="D33" s="71"/>
@@ -45105,7 +45105,7 @@
     </row>
     <row r="34" spans="2:13" ht="33.75" customHeight="1">
       <c r="B34" s="73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" s="74"/>
       <c r="D34" s="74"/>
@@ -45403,7 +45403,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1">
@@ -45430,12 +45430,12 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" customHeight="1">
       <c r="A5" s="91" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="92"/>
       <c r="C5" s="92"/>
@@ -45446,7 +45446,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1">
@@ -45455,7 +45455,7 @@
       </c>
       <c r="B7" s="89"/>
       <c r="C7" s="85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="86"/>
       <c r="E7" s="86"/>
@@ -45464,7 +45464,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="25.5">
@@ -45472,7 +45472,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>26</v>
@@ -45501,7 +45501,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -45566,7 +45566,7 @@
     </row>
     <row r="5" spans="1:7" ht="67.5" customHeight="1">
       <c r="A5" s="91" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="92"/>
       <c r="C5" s="92"/>
@@ -45581,7 +45581,7 @@
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="97"/>
       <c r="E7" s="97"/>
@@ -45593,7 +45593,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>26</v>
@@ -45642,7 +45642,7 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:J4"/>
     </sheetView>
   </sheetViews>
@@ -45674,7 +45674,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -45690,7 +45690,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -45729,7 +45729,7 @@
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="98" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="98"/>
       <c r="C2" s="98"/>
@@ -45746,7 +45746,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="100"/>
       <c r="D4" s="101"/>
@@ -45759,10 +45759,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -45788,7 +45788,7 @@
   <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -45800,7 +45800,7 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18">
       <c r="A2" s="98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="98"/>
     </row>
@@ -45813,7 +45813,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -45897,7 +45897,7 @@
       <c r="B4" s="103"/>
       <c r="C4" s="104"/>
       <c r="D4" s="105" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="106"/>
       <c r="F4" s="106"/>
@@ -45911,22 +45911,22 @@
     </row>
     <row r="6" spans="1:13" ht="96.75" customHeight="1">
       <c r="A6" s="109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="108"/>
       <c r="D6" s="108"/>
       <c r="E6" s="108"/>
       <c r="F6" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="108"/>
       <c r="H6" s="108"/>
       <c r="I6" s="108"/>
       <c r="J6" s="48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K6" s="108"/>
       <c r="L6" s="108"/>
@@ -45935,7 +45935,7 @@
     <row r="7" spans="1:13" ht="45" customHeight="1">
       <c r="A7" s="109"/>
       <c r="B7" s="48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="110"/>
       <c r="D7" s="111"/>
@@ -45975,13 +45975,13 @@
         <v>8</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L9" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -46043,21 +46043,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="35"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="37">
         <v>0</v>
@@ -46065,7 +46065,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="37">
         <v>0</v>
@@ -46073,7 +46073,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="37">
         <v>0</v>
@@ -46081,7 +46081,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="37">
         <v>0</v>
@@ -46089,20 +46089,20 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="37">
         <v>0</v>
@@ -46110,7 +46110,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="37">
         <v>0</v>
@@ -46118,7 +46118,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="37">
         <v>0</v>
@@ -46126,7 +46126,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="37">
         <v>0</v>
@@ -46134,7 +46134,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -46142,12 +46142,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="37">
         <v>0</v>
@@ -46155,7 +46155,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="37">
         <v>0</v>
@@ -46163,7 +46163,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="37">
         <v>0</v>
@@ -46171,7 +46171,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="37">
         <v>0</v>
@@ -46179,7 +46179,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="37">
         <v>0</v>
@@ -46187,7 +46187,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="37">
         <v>0</v>

--- a/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
+++ b/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bgalbraith\workspace\Semoss\export\Reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834"/>
   </bookViews>
@@ -14,12 +19,12 @@
     <sheet name="System Data" sheetId="30" r:id="rId5"/>
     <sheet name="System BLU" sheetId="35" r:id="rId6"/>
     <sheet name="SOR Overlap With DHMSM" sheetId="28" r:id="rId7"/>
-    <sheet name="System Interfaces" sheetId="27" r:id="rId8"/>
-    <sheet name="Summary Charts" sheetId="34" r:id="rId9"/>
+    <sheet name="Future Interface Development" sheetId="36" r:id="rId8"/>
+    <sheet name="Future Interface Decommission" sheetId="37" r:id="rId9"/>
+    <sheet name="Future Interface Sustainment" sheetId="38" r:id="rId10"/>
+    <sheet name="Summary Charts" sheetId="34" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
@@ -29,6 +34,9 @@
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
   </externalReferences>
   <definedNames>
     <definedName name="Additional">[1]Data!$D$3:$D$15</definedName>
@@ -55,6 +63,9 @@
     <definedName name="FY15_Total">'[2]Fiscal Year Breakdown'!$AO$18</definedName>
     <definedName name="HW" localSheetId="0">[4]SiteDB2!$L$2:$L$330</definedName>
     <definedName name="HW">[5]SiteDB2!$L$2:$L$330</definedName>
+    <definedName name="I_O" localSheetId="8">#REF!</definedName>
+    <definedName name="I_O" localSheetId="7">#REF!</definedName>
+    <definedName name="I_O" localSheetId="9">#REF!</definedName>
     <definedName name="I_O" localSheetId="0">#REF!</definedName>
     <definedName name="I_O" localSheetId="5">#REF!</definedName>
     <definedName name="I_O" localSheetId="4">#REF!</definedName>
@@ -74,7 +85,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Software Lifecycles'!$9:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'SOR Overlap With DHMSM'!$6:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'System Data'!$6:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">'System Interfaces'!$9:$9</definedName>
     <definedName name="Priority3">[6]Data1!$B$4:$B$6</definedName>
     <definedName name="ProcContractMonths">'[2]New Timeline'!$A$22</definedName>
     <definedName name="RangeBLU">[7]BLUBackEnd!$G$5:$G$49</definedName>
@@ -91,6 +101,9 @@
     <definedName name="SW">[5]SiteDB2!$K$2:$K$392</definedName>
     <definedName name="System">'[10]2. System Information'!$D$3</definedName>
     <definedName name="Teams">[2]Cheat!$A$38:$A$39</definedName>
+    <definedName name="Type" localSheetId="8">#REF!</definedName>
+    <definedName name="Type" localSheetId="7">#REF!</definedName>
+    <definedName name="Type" localSheetId="9">#REF!</definedName>
     <definedName name="Type" localSheetId="0">#REF!</definedName>
     <definedName name="Type" localSheetId="5">#REF!</definedName>
     <definedName name="Type" localSheetId="4">#REF!</definedName>
@@ -105,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="79">
   <si>
     <t>Garrison / Theater</t>
   </si>
@@ -129,15 +142,6 @@
   </si>
   <si>
     <t>DHMSM SOR?</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>Interfacing System</t>
-  </si>
-  <si>
-    <t>Interface</t>
   </si>
   <si>
     <t>Format</t>
@@ -179,16 +183,10 @@
     <t>Annual Hardware Sustainment Cost</t>
   </si>
   <si>
-    <t>Probability of Interfacing System</t>
-  </si>
-  <si>
     <t xml:space="preserve">System </t>
   </si>
   <si>
     <t>Lifecycle Phase</t>
-  </si>
-  <si>
-    <t>DHMSM Provide / Consume</t>
   </si>
   <si>
     <t>System Description</t>
@@ -197,19 +195,10 @@
     <t>System Data</t>
   </si>
   <si>
-    <t>System Interfaces</t>
-  </si>
-  <si>
     <t>System Name</t>
   </si>
   <si>
     <t>Report Overview</t>
-  </si>
-  <si>
-    <t>Direct Cost</t>
-  </si>
-  <si>
-    <t>Indirect Cost</t>
   </si>
   <si>
     <t>Average Daily Transaction Count</t>
@@ -330,24 +319,6 @@
 - This report focuses on the analysis of low probability systems that will not require integration (LPNI) with the future-state EHR. These systems will endure into the future and need to be modernized in order to maintain compliance with relevant DHA standards and ensure continuity of operations in the future-state environment.</t>
   </si>
   <si>
-    <t>This section displays the current @SYSTEM@ interfaces and how they are to be affected by the DHMSM deployment.</t>
-  </si>
-  <si>
-    <t>Legend</t>
-  </si>
-  <si>
-    <t>Direct Integration</t>
-  </si>
-  <si>
-    <t>Indirect Integration</t>
-  </si>
-  <si>
-    <t>Removed Legacy Interfaces</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
     <t>Proposed Temporary Interfaces with DHMSM - Legacy Consumer</t>
   </si>
   <si>
@@ -391,14 +362,40 @@
   <si>
     <t>This section displays data objects for which @SYSTEM@ is Source of Record (SOR) and which of those DHMSM is expected to become the SOR for in the future.</t>
   </si>
+  <si>
+    <t>Future Interface Development</t>
+  </si>
+  <si>
+    <t>This section defines the future interfaces that must be developed for @SYSTEM@ in order to support continuity of operations into the future-state environment.</t>
+  </si>
+  <si>
+    <t>Upstream System</t>
+  </si>
+  <si>
+    <t>Downstream System</t>
+  </si>
+  <si>
+    <t>ICD Name</t>
+  </si>
+  <si>
+    <t>Future Interface Decommissioning</t>
+  </si>
+  <si>
+    <t>This section defines the current interfaces for @SYSTEM@ that will be retired in support of the future-state architecture as the system is transitioned to the future-state environment.</t>
+  </si>
+  <si>
+    <t>Future Interface Sustainment</t>
+  </si>
+  <si>
+    <t>This section defines the current interfaces for @SYSTEM@ that will continue to be supported as the system is transitioned to the future-state environment.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -572,13 +569,14 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <name val="Impact"/>
       <family val="2"/>
     </font>
@@ -628,7 +626,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,7 +785,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -848,8 +846,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -897,16 +896,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="48" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -926,9 +917,6 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -942,9 +930,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="48" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -981,33 +966,6 @@
     <xf numFmtId="0" fontId="24" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1035,6 +993,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1044,10 +1011,28 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1104,41 +1089,26 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="52">
     <cellStyle name="%" xfId="2"/>
     <cellStyle name="% 2" xfId="3"/>
     <cellStyle name="Currency" xfId="49" builtinId="4"/>
@@ -1180,6 +1150,7 @@
     <cellStyle name="Normal 6_System-BLIO" xfId="37"/>
     <cellStyle name="Normal 7" xfId="48"/>
     <cellStyle name="Normal 8" xfId="50"/>
+    <cellStyle name="Normal 9" xfId="51"/>
     <cellStyle name="Percent 2" xfId="38"/>
     <cellStyle name="Percent 2 2" xfId="39"/>
     <cellStyle name="Percent 2 2 2" xfId="40"/>
@@ -1411,11 +1382,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="200570752"/>
-        <c:axId val="200572288"/>
+        <c:axId val="489949344"/>
+        <c:axId val="489949736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200570752"/>
+        <c:axId val="489949344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1425,7 +1396,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200572288"/>
+        <c:crossAx val="489949736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1433,7 +1404,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200572288"/>
+        <c:axId val="489949736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1444,7 +1415,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200570752"/>
+        <c:crossAx val="489949344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1577,11 +1548,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="204804096"/>
-        <c:axId val="204806784"/>
+        <c:axId val="489950520"/>
+        <c:axId val="403298048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204804096"/>
+        <c:axId val="489950520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1591,7 +1562,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204806784"/>
+        <c:crossAx val="403298048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1599,7 +1570,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204806784"/>
+        <c:axId val="403298048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1610,7 +1581,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204804096"/>
+        <c:crossAx val="489950520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1891,11 +1862,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="208124160"/>
-        <c:axId val="210645376"/>
+        <c:axId val="403298832"/>
+        <c:axId val="403299224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="208124160"/>
+        <c:axId val="403298832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1905,7 +1876,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210645376"/>
+        <c:crossAx val="403299224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1913,7 +1884,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210645376"/>
+        <c:axId val="403299224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1924,7 +1895,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208124160"/>
+        <c:crossAx val="403298832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2040,201 +2011,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>197980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1409898</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1057590</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="133" name="Picture 132"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1676400" y="1236205"/>
-          <a:ext cx="2286198" cy="859610"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>197980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1362273</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1057590</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="135" name="Picture 134"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3990975" y="1236205"/>
-          <a:ext cx="2286198" cy="859610"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>452620</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1198420</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="138" name="Picture 137"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11991975" y="1095375"/>
-          <a:ext cx="2538595" cy="1141270"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>112019</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>877586</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1143552</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="139" name="Picture 138"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7524750" y="1150244"/>
-          <a:ext cx="2534936" cy="1031533"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>522187</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1714500" y="2286000"/>
-          <a:ext cx="6705600" cy="503137"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -3238,6 +3014,39 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Report Overview"/>
+      <sheetName val="System Overview"/>
+      <sheetName val="Software Lifecycles"/>
+      <sheetName val="Hardware Lifecycles"/>
+      <sheetName val="System Data"/>
+      <sheetName val="System BLU"/>
+      <sheetName val="SOR Overlap With DHMSM"/>
+      <sheetName val="Future Interface Development"/>
+      <sheetName val="Future Interface Decommission"/>
+      <sheetName val="Future Interface Sustainment"/>
+      <sheetName val="Summary Charts"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -44210,7 +44019,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -44245,7 +44054,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -44466,151 +44275,151 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="29" customWidth="1"/>
-    <col min="2" max="11" width="9.140625" style="29"/>
-    <col min="12" max="12" width="33.28515625" style="29" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="17.5703125" style="25" customWidth="1"/>
+    <col min="2" max="11" width="9.140625" style="25"/>
+    <col min="12" max="12" width="33.28515625" style="25" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32.25" customHeight="1">
-      <c r="A2" s="53" t="s">
-        <v>42</v>
+      <c r="A2" s="47" t="s">
+        <v>34</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="286.5" customHeight="1">
-      <c r="A4" s="55" t="s">
-        <v>65</v>
+      <c r="A4" s="49" t="s">
+        <v>57</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="57"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="30" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A6" s="53" t="s">
-        <v>44</v>
+    <row r="6" spans="1:12" s="26" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A6" s="47" t="s">
+        <v>36</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="134.25" customHeight="1">
-      <c r="A8" s="58" t="s">
-        <v>80</v>
+      <c r="A8" s="52" t="s">
+        <v>66</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="54"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -44625,6 +44434,292 @@
     <oddHeader>&amp;C&amp;F
 &amp;A</oddHeader>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF366092"/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="7" width="13.140625" style="101" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="18">
+      <c r="A2" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A4" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="97"/>
+      <c r="C4" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="99" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="30"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="32">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -44657,22 +44752,22 @@
     <row r="1" spans="1:13" ht="7.5" customHeight="1"/>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="250.5" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="61" t="s">
-        <v>32</v>
+      <c r="B2" s="75" t="s">
+        <v>26</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63" t="s">
-        <v>75</v>
+      <c r="C2" s="76"/>
+      <c r="D2" s="64" t="s">
+        <v>61</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -44691,20 +44786,20 @@
     </row>
     <row r="4" spans="1:13" ht="32.25" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="53" t="s">
-        <v>31</v>
+      <c r="B4" s="47" t="s">
+        <v>25</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
     </row>
     <row r="5" spans="1:13" ht="7.5" customHeight="1">
       <c r="A5" s="5"/>
@@ -44730,22 +44825,22 @@
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="375" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="61" t="s">
-        <v>28</v>
+      <c r="B7" s="75" t="s">
+        <v>23</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63" t="s">
-        <v>45</v>
+      <c r="C7" s="76"/>
+      <c r="D7" s="64" t="s">
+        <v>37</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="66"/>
     </row>
     <row r="8" spans="1:13" ht="8.25" customHeight="1">
       <c r="A8" s="5"/>
@@ -44756,606 +44851,595 @@
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="72"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="57"/>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="28.5" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66" t="s">
+      <c r="C10" s="70"/>
+      <c r="D10" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="66" t="s">
-        <v>35</v>
+      <c r="E10" s="77"/>
+      <c r="F10" s="70" t="s">
+        <v>27</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="82" t="s">
-        <v>36</v>
+      <c r="G10" s="70"/>
+      <c r="H10" s="71" t="s">
+        <v>28</v>
       </c>
-      <c r="I10" s="83"/>
-      <c r="J10" s="66" t="s">
-        <v>37</v>
+      <c r="I10" s="72"/>
+      <c r="J10" s="70" t="s">
+        <v>29</v>
       </c>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66" t="s">
+      <c r="K10" s="70"/>
+      <c r="L10" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="66"/>
+      <c r="M10" s="70"/>
     </row>
     <row r="11" spans="1:13" ht="42.75" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="68"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="74"/>
     </row>
     <row r="13" spans="1:13" ht="16.5">
-      <c r="B13" s="70" t="s">
-        <v>46</v>
+      <c r="B13" s="55" t="s">
+        <v>38</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="72"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="57"/>
     </row>
     <row r="14" spans="1:13" ht="51" customHeight="1">
-      <c r="B14" s="76" t="s">
-        <v>63</v>
+      <c r="B14" s="61" t="s">
+        <v>55</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="78"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="63"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="79" t="s">
-        <v>49</v>
+      <c r="B15" s="67" t="s">
+        <v>41</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="79" t="s">
-        <v>55</v>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="67" t="s">
+        <v>47</v>
       </c>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="69"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="41"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="36"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="39"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="44"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="39"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="44"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="39"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="39"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="44"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="39"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="44"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="39"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="44"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="39"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="44"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="39"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="44"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="39"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="44"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="39"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="44"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="39"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="44"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="39"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="44"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="39"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="44"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="39"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="47"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="42"/>
     </row>
     <row r="33" spans="2:13" ht="16.5">
-      <c r="B33" s="70" t="s">
-        <v>56</v>
+      <c r="B33" s="55" t="s">
+        <v>48</v>
       </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="72"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="57"/>
     </row>
     <row r="34" spans="2:13" ht="33.75" customHeight="1">
-      <c r="B34" s="73" t="s">
-        <v>62</v>
+      <c r="B34" s="58" t="s">
+        <v>54</v>
       </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="75"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="60"/>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="39"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="41"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="36"/>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="44"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="39"/>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="42"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="44"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="39"/>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="44"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="39"/>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="44"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="39"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="42"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="44"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="39"/>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="42"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="44"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="39"/>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="44"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="39"/>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="42"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="44"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="39"/>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="42"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="44"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="39"/>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="42"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="44"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="39"/>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="42"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="44"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="39"/>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="42"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="44"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="39"/>
     </row>
     <row r="48" spans="2:13">
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="44"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="39"/>
     </row>
     <row r="49" spans="2:13">
-      <c r="B49" s="42"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="44"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="39"/>
     </row>
     <row r="50" spans="2:13">
-      <c r="B50" s="45"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="47"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="D2:M2"/>
@@ -45369,6 +45453,17 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45403,105 +45498,105 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="84" t="s">
-        <v>14</v>
+      <c r="A2" s="78" t="s">
+        <v>11</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="90" t="s">
-        <v>25</v>
+      <c r="A3" s="84" t="s">
+        <v>21</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" customHeight="1">
-      <c r="A5" s="91" t="s">
-        <v>73</v>
+      <c r="A5" s="85" t="s">
+        <v>59</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="93"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="87"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A7" s="88" t="s">
-        <v>19</v>
+      <c r="A7" s="82" t="s">
+        <v>16</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="85" t="s">
-        <v>40</v>
+      <c r="B7" s="83"/>
+      <c r="C7" s="79" t="s">
+        <v>32</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="87"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="81"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="25.5">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="33" t="s">
+      <c r="G9" s="29" t="s">
         <v>18</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="23"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="26"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="26"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -45543,82 +45638,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="94" t="s">
-        <v>20</v>
+      <c r="A2" s="88" t="s">
+        <v>17</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="90"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
     </row>
     <row r="5" spans="1:7" ht="67.5" customHeight="1">
-      <c r="A5" s="91" t="s">
-        <v>74</v>
+      <c r="A5" s="85" t="s">
+        <v>60</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="93"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="87"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="84"/>
+      <c r="C7" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+    </row>
+    <row r="9" spans="1:7" ht="25.5">
+      <c r="A9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="97" t="s">
-        <v>41</v>
+      <c r="B9" s="29" t="s">
+        <v>30</v>
       </c>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-    </row>
-    <row r="9" spans="1:7" ht="25.5">
-      <c r="A9" s="33" t="s">
+      <c r="C9" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>38</v>
+      <c r="D9" s="29" t="s">
+        <v>13</v>
       </c>
-      <c r="C9" s="33" t="s">
-        <v>26</v>
+      <c r="E9" s="29" t="s">
+        <v>14</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>16</v>
+      <c r="F9" s="29" t="s">
+        <v>15</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>23</v>
+      <c r="G9" s="29" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="23"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="26"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="26"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -45656,46 +45751,46 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1"/>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="98" t="s">
-        <v>29</v>
+      <c r="A2" s="92" t="s">
+        <v>24</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
     </row>
     <row r="4" spans="1:10" ht="53.25" customHeight="1">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="99" t="s">
-        <v>82</v>
+      <c r="B4" s="93" t="s">
+        <v>68</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="101"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="95"/>
     </row>
     <row r="6" spans="1:10" ht="39.75" customHeight="1">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>81</v>
+      <c r="B6" s="29" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -45728,46 +45823,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="98" t="s">
-        <v>76</v>
+      <c r="A2" s="92" t="s">
+        <v>62</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="4" spans="1:10" ht="45.75" customHeight="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="99" t="s">
-        <v>77</v>
+      <c r="B4" s="93" t="s">
+        <v>63</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="33" t="s">
-        <v>78</v>
+      <c r="A6" s="29" t="s">
+        <v>64</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>79</v>
+      <c r="B6" s="29" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -45799,10 +45894,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="18">
-      <c r="A2" s="98" t="s">
-        <v>43</v>
+      <c r="A2" s="92" t="s">
+        <v>35</v>
       </c>
-      <c r="B2" s="98"/>
+      <c r="B2" s="92"/>
     </row>
     <row r="3" spans="1:2" ht="18">
       <c r="A3" s="12"/>
@@ -45813,7 +45908,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -45821,10 +45916,10 @@
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="29" t="s">
         <v>7</v>
       </c>
     </row>
@@ -45846,354 +45941,240 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF366092"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="21" customWidth="1"/>
-    <col min="13" max="13" width="16" style="21" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="7" width="13.140625" style="101" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="101" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" customHeight="1"/>
-    <row r="2" spans="1:13" ht="18" customHeight="1">
-      <c r="A2" s="98" t="s">
-        <v>30</v>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="A2" s="96" t="s">
+        <v>70</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
     </row>
-    <row r="4" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A4" s="102" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="32.25" customHeight="1">
+      <c r="A4" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="107"/>
-    </row>
-    <row r="6" spans="1:13" ht="96.75" customHeight="1">
-      <c r="A6" s="109" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-    </row>
-    <row r="7" spans="1:13" ht="45" customHeight="1">
-      <c r="A7" s="109"/>
-      <c r="B7" s="48" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="112"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
     </row>
-    <row r="9" spans="1:13" ht="39.75" customHeight="1">
-      <c r="A9" s="33" t="s">
-        <v>2</v>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="30">
+      <c r="A6" s="99" t="s">
+        <v>72</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B6" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="33" t="s">
+      <c r="G6" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="34" t="s">
-        <v>34</v>
+      <c r="H6" s="99" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="K11" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="C7:G7"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FF366092"/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="7" width="13.140625" style="101" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="101" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="38" t="s">
-        <v>47</v>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="A2" s="96" t="s">
+        <v>75</v>
       </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="36" t="s">
-        <v>49</v>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="36" customHeight="1">
+      <c r="A4" s="97" t="s">
+        <v>3</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>50</v>
+      <c r="B4" s="97"/>
+      <c r="C4" s="98" t="s">
+        <v>76</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="37" t="s">
-        <v>51</v>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="30">
+      <c r="A6" s="99" t="s">
+        <v>72</v>
       </c>
-      <c r="B4" s="37">
-        <v>0</v>
+      <c r="B6" s="99" t="s">
+        <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="37" t="s">
-        <v>52</v>
+      <c r="C6" s="99" t="s">
+        <v>74</v>
       </c>
-      <c r="B5" s="37">
-        <v>0</v>
+      <c r="D6" s="99" t="s">
+        <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="37" t="s">
-        <v>53</v>
+      <c r="E6" s="99" t="s">
+        <v>8</v>
       </c>
-      <c r="B6" s="37">
-        <v>0</v>
+      <c r="F6" s="99" t="s">
+        <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="37" t="s">
-        <v>54</v>
+      <c r="G6" s="99" t="s">
+        <v>10</v>
       </c>
-      <c r="B7" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="38" t="s">
+      <c r="H6" s="99" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="37">
-        <v>0</v>
-      </c>
+    <row r="7" spans="1:8">
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
+++ b/export/Reports/Individual_System_LPNI_Transition_Report_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bgalbraith\workspace\Semoss\export\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksmart\workspace\Semoss\export\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1110" windowWidth="15120" windowHeight="6405" tabRatio="834"/>
+    <workbookView xWindow="240" yWindow="1116" windowWidth="15120" windowHeight="6408" tabRatio="834" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Report Overview" sheetId="33" r:id="rId1"/>
@@ -36,7 +36,6 @@
     <externalReference r:id="rId20"/>
     <externalReference r:id="rId21"/>
     <externalReference r:id="rId22"/>
-    <externalReference r:id="rId23"/>
   </externalReferences>
   <definedNames>
     <definedName name="Additional">[1]Data!$D$3:$D$15</definedName>
@@ -113,7 +112,7 @@
     <definedName name="xx">[11]Data!$E$3:$E$151</definedName>
     <definedName name="xz">[11]Data!$B$3:$B$12</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="152511" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -139,9 +138,6 @@
   </si>
   <si>
     <t>Data Object</t>
-  </si>
-  <si>
-    <t>DHMSM SOR?</t>
   </si>
   <si>
     <t>Format</t>
@@ -247,9 +243,6 @@
     <t>Background</t>
   </si>
   <si>
-    <t>SOR Overlap with DHMSM</t>
-  </si>
-  <si>
     <t>Contents</t>
   </si>
   <si>
@@ -289,19 +282,10 @@
     <t>Interfaces Summary</t>
   </si>
   <si>
-    <t>Required Direct Interfaces with DHMSM - Legacy Provider</t>
-  </si>
-  <si>
-    <t>Required Direct Interfaces with DHMSM - Legacy Consumer</t>
-  </si>
-  <si>
     <t>Existing Legacy Interfaces Required to Endure</t>
   </si>
   <si>
     <t>Existing Legacy Interfaces Recommended for Removal</t>
-  </si>
-  <si>
-    <t>Proposed Future Interfaces with DHMSM - Legacy Provider</t>
   </si>
   <si>
     <t>The following graph illustrates the number of interfaces @SYSTEM@ will have in the future state based upon the business rules established for each interface type.</t>
@@ -317,15 +301,6 @@
   - A March 14, 2014 memorandum signed by the Assistant Secretary of Defense for Health Affairs (ASD/HA) directed all DHA and Services stakeholders to provide information required to make transition decisions for the legacy systems in their portfolios. The TAP team, working directly with the Defense Health Clinical Systems (DHCS) and Defense Health Services (DHSS) Program Executive Offices, in addition to the tri-Services, collected functional, technical, and program management data for all systems identified in connection with the ASD/HA memorandum.
 - Using data provided by the DHA PEOs and Services to characterize the legacy enterprise, the TAP team provided transition recommendations for all identified legacy systems to the Functional Advisory Council (FAC). Based upon the clinical and business capabilities expected to be delivered by the future-state EHR solution and the analysis of the legacy systems provided by OTM, the FAC made decisions on how to transition the legacy systems in the DHA and Services portfolios to the future-state environment. The legacy systems were categorized as either having a low or high probability of being replaced by the future-state EHR solution.
 - This report focuses on the analysis of low probability systems that will not require integration (LPNI) with the future-state EHR. These systems will endure into the future and need to be modernized in order to maintain compliance with relevant DHA standards and ensure continuity of operations in the future-state environment.</t>
-  </si>
-  <si>
-    <t>Proposed Temporary Interfaces with DHMSM - Legacy Consumer</t>
-  </si>
-  <si>
-    <t>Software characteristics are based upon TAP data submissions provided by the DHA and Services program offices for each of their systems. Annual software sustainment costs were provided by the system owners as part of their budgets. Projected product upgrade costs are taken from industry pricing where available. This tab is broken down into three points in time (current state, IOC, and FOC for DHMSM) to illustrate the changing lifecycle of the system’s products over time and to more closely detail transition plans as information is made available.</t>
-  </si>
-  <si>
-    <t>Hardware characteristics are based upon TAP data submissions provided by the DHA and Services program offices for each of their systems. Annual hardware sustainment costs were provided by the system owners as part of their budgets. Projected product upgrade costs are taken from industry pricing where available. This tab is broken down into three points in time (current state, IOC, and FOC for DHMSM) to illustrate the changing lifecycle of the system’s products over time and to more closely detail transition plans as information is made available.</t>
   </si>
   <si>
     <t>The Office of Transition Management (OTM) Transition Application Planning (TAP) coordinated with the Defense Health Clinical Systems (DHCS) and Defense Health Services Systems (DHSS) program offices, in addition to the tri-Services, to collect technical and functional data regarding their information systems, in order to fully characterize the legacy DHA IM/IT portfolio. 
@@ -360,9 +335,6 @@
     <t>This section displays the data objects that @SYSTEM@ creates, reads, or modifies. This information is used in concert with the @SYSTEM@ interface control documents to define what data @SYSTEM@ is a source of record of and what data @SYSTEM@ consumes.</t>
   </si>
   <si>
-    <t>This section displays data objects for which @SYSTEM@ is Source of Record (SOR) and which of those DHMSM is expected to become the SOR for in the future.</t>
-  </si>
-  <si>
     <t>Future Interface Development</t>
   </si>
   <si>
@@ -388,6 +360,33 @@
   </si>
   <si>
     <t>This section defines the current interfaces for @SYSTEM@ that will continue to be supported as the system is transitioned to the future-state environment.</t>
+  </si>
+  <si>
+    <t>Software characteristics are based upon TAP data submissions provided by the DHA and Services program offices for each of their systems. Annual software sustainment costs were provided by the system owners as part of their budgets. Projected product upgrade costs are taken from industry pricing where available. This tab is broken down into three points in time (current state, IOC, and FOC for MHS GENESIS) to illustrate the changing lifecycle of the system’s products over time and to more closely detail transition plans as information is made available.</t>
+  </si>
+  <si>
+    <t>Hardware characteristics are based upon TAP data submissions provided by the DHA and Services program offices for each of their systems. Annual hardware sustainment costs were provided by the system owners as part of their budgets. Projected product upgrade costs are taken from industry pricing where available. This tab is broken down into three points in time (current state, IOC, and FOC for MHS GENESIS) to illustrate the changing lifecycle of the system’s products over time and to more closely detail transition plans as information is made available.</t>
+  </si>
+  <si>
+    <t>SOR Overlap with MHS GENESIS</t>
+  </si>
+  <si>
+    <t>This section displays data objects for which @SYSTEM@ is Source of Record (SOR) and which of those MHS GENESIS is expected to become the SOR for in the future.</t>
+  </si>
+  <si>
+    <t>MHS GENESIS SOR?</t>
+  </si>
+  <si>
+    <t>Proposed Future Interfaces with MHS GENESIS - Legacy Provider</t>
+  </si>
+  <si>
+    <t>Proposed Temporary Interfaces with MHS GENESIS - Legacy Consumer</t>
+  </si>
+  <si>
+    <t>Required Direct Interfaces with MHS GENESIS - Legacy Provider</t>
+  </si>
+  <si>
+    <t>Required Direct Interfaces with MHS GENESIS - Legacy Consumer</t>
   </si>
 </sst>
 </file>
@@ -942,6 +941,15 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -965,6 +973,33 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -993,15 +1028,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1011,28 +1037,10 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1097,15 +1105,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1382,11 +1381,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="489949344"/>
-        <c:axId val="489949736"/>
+        <c:axId val="432434976"/>
+        <c:axId val="432424000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="489949344"/>
+        <c:axId val="432434976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1396,7 +1395,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489949736"/>
+        <c:crossAx val="432424000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1404,7 +1403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="489949736"/>
+        <c:axId val="432424000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,7 +1414,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489949344"/>
+        <c:crossAx val="432434976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1548,11 +1547,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="489950520"/>
-        <c:axId val="403298048"/>
+        <c:axId val="432420472"/>
+        <c:axId val="432430664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="489950520"/>
+        <c:axId val="432420472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1562,7 +1561,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="403298048"/>
+        <c:crossAx val="432430664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1570,7 +1569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="403298048"/>
+        <c:axId val="432430664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1581,7 +1580,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489950520"/>
+        <c:crossAx val="432420472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1628,7 +1627,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Required Direct Interfaces with DHMSM - Legacy Provider</c:v>
+                  <c:v>Required Direct Interfaces with MHS GENESIS - Legacy Provider</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1667,7 +1666,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Required Direct Interfaces with DHMSM - Legacy Consumer</c:v>
+                  <c:v>Required Direct Interfaces with MHS GENESIS - Legacy Consumer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1784,7 +1783,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Proposed Future Interfaces with DHMSM - Legacy Provider</c:v>
+                  <c:v>Proposed Future Interfaces with MHS GENESIS - Legacy Provider</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1823,7 +1822,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Proposed Temporary Interfaces with DHMSM - Legacy Consumer</c:v>
+                  <c:v>Proposed Temporary Interfaces with MHS GENESIS - Legacy Consumer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1862,11 +1861,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="403298832"/>
-        <c:axId val="403299224"/>
+        <c:axId val="432420080"/>
+        <c:axId val="432426744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="403298832"/>
+        <c:axId val="432420080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1876,7 +1875,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="403299224"/>
+        <c:crossAx val="432426744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1884,7 +1883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="403299224"/>
+        <c:axId val="432426744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1895,7 +1894,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="403298832"/>
+        <c:crossAx val="432420080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3009,39 +3008,6 @@
           </cell>
         </row>
       </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Report Overview"/>
-      <sheetName val="System Overview"/>
-      <sheetName val="Software Lifecycles"/>
-      <sheetName val="Hardware Lifecycles"/>
-      <sheetName val="System Data"/>
-      <sheetName val="System BLU"/>
-      <sheetName val="SOR Overlap With DHMSM"/>
-      <sheetName val="Future Interface Development"/>
-      <sheetName val="Future Interface Decommission"/>
-      <sheetName val="Future Interface Sustainment"/>
-      <sheetName val="Summary Charts"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -44269,101 +44235,101 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="25" customWidth="1"/>
-    <col min="2" max="11" width="9.140625" style="25"/>
-    <col min="12" max="12" width="33.28515625" style="25" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="17.5546875" style="25" customWidth="1"/>
+    <col min="2" max="11" width="9.109375" style="25"/>
+    <col min="12" max="12" width="33.33203125" style="25" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32.25" customHeight="1">
-      <c r="A2" s="47" t="s">
-        <v>34</v>
+      <c r="A2" s="50" t="s">
+        <v>33</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="286.5" customHeight="1">
-      <c r="A4" s="49" t="s">
-        <v>57</v>
+      <c r="A4" s="52" t="s">
+        <v>52</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="51"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="26" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A6" s="47" t="s">
-        <v>36</v>
+      <c r="A6" s="50" t="s">
+        <v>34</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="134.25" customHeight="1">
-      <c r="A8" s="52" t="s">
-        <v>66</v>
+      <c r="A8" s="55" t="s">
+        <v>58</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="54"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="57"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="27"/>
@@ -44448,10 +44414,10 @@
       <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="7" width="13.140625" style="101" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="7" width="13.109375" style="49" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -44463,16 +44429,16 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="18">
-      <c r="A2" s="96" t="s">
-        <v>77</v>
+    <row r="2" spans="1:7" ht="17.399999999999999">
+      <c r="A2" s="99" t="s">
+        <v>68</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -44484,17 +44450,17 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="36.75" customHeight="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="98" t="s">
-        <v>78</v>
+      <c r="B4" s="100"/>
+      <c r="C4" s="101" t="s">
+        <v>69</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>
@@ -44505,37 +44471,37 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="99" t="s">
-        <v>72</v>
+    <row r="6" spans="1:7" ht="28.8">
+      <c r="A6" s="47" t="s">
+        <v>63</v>
       </c>
-      <c r="B6" s="99" t="s">
-        <v>73</v>
+      <c r="B6" s="47" t="s">
+        <v>64</v>
       </c>
-      <c r="C6" s="99" t="s">
-        <v>74</v>
+      <c r="C6" s="47" t="s">
+        <v>65</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="99" t="s">
+      <c r="E6" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="99" t="s">
+      <c r="G6" s="47" t="s">
         <v>9</v>
-      </c>
-      <c r="G6" s="99" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -44555,33 +44521,33 @@
   </sheetPr>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="38.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="30"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="32">
         <v>0</v>
@@ -44589,7 +44555,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="32">
         <v>0</v>
@@ -44597,7 +44563,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="32">
         <v>0</v>
@@ -44605,7 +44571,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="32">
         <v>0</v>
@@ -44613,20 +44579,20 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" s="32">
         <v>0</v>
@@ -44634,7 +44600,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="32">
         <v>0</v>
@@ -44642,7 +44608,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" s="32">
         <v>0</v>
@@ -44650,7 +44616,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" s="32">
         <v>0</v>
@@ -44658,7 +44624,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -44666,12 +44632,12 @@
         <v>2</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="32" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="B20" s="32">
         <v>0</v>
@@ -44679,7 +44645,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="32" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B21" s="32">
         <v>0</v>
@@ -44687,7 +44653,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="32" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B22" s="32">
         <v>0</v>
@@ -44695,7 +44661,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B23" s="32">
         <v>0</v>
@@ -44703,7 +44669,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="32" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B24" s="32">
         <v>0</v>
@@ -44711,7 +44677,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="32" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B25" s="32">
         <v>0</v>
@@ -44735,39 +44701,39 @@
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="1.109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="8" style="6" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="6" customWidth="1"/>
     <col min="4" max="5" width="8" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="6" customWidth="1"/>
-    <col min="9" max="10" width="7.5703125" style="6" customWidth="1"/>
-    <col min="11" max="13" width="7.42578125" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="6"/>
+    <col min="6" max="6" width="8.88671875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" style="6" customWidth="1"/>
+    <col min="9" max="10" width="7.5546875" style="6" customWidth="1"/>
+    <col min="11" max="13" width="7.44140625" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="7.5" customHeight="1"/>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="250.5" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="75" t="s">
-        <v>26</v>
+      <c r="B2" s="58" t="s">
+        <v>25</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="64" t="s">
-        <v>61</v>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60" t="s">
+        <v>53</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62"/>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" ht="7.5" customHeight="1">
       <c r="A3" s="16"/>
@@ -44786,20 +44752,20 @@
     </row>
     <row r="4" spans="1:13" ht="32.25" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="47" t="s">
-        <v>25</v>
+      <c r="B4" s="50" t="s">
+        <v>24</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
     </row>
     <row r="5" spans="1:13" ht="7.5" customHeight="1">
       <c r="A5" s="5"/>
@@ -44825,22 +44791,22 @@
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="375" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="75" t="s">
-        <v>23</v>
+      <c r="B7" s="58" t="s">
+        <v>22</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="64" t="s">
-        <v>37</v>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60" t="s">
+        <v>35</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="66"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="62"/>
     </row>
     <row r="8" spans="1:13" ht="8.25" customHeight="1">
       <c r="A8" s="5"/>
@@ -44851,112 +44817,112 @@
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="57"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="69"/>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="28.5" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70" t="s">
+      <c r="C10" s="63"/>
+      <c r="D10" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="70" t="s">
+      <c r="E10" s="66"/>
+      <c r="F10" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="63"/>
+      <c r="H10" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="70"/>
-      <c r="H10" s="71" t="s">
+      <c r="I10" s="80"/>
+      <c r="J10" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="72"/>
-      <c r="J10" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70" t="s">
+      <c r="K10" s="63"/>
+      <c r="L10" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="70"/>
+      <c r="M10" s="63"/>
     </row>
     <row r="11" spans="1:13" ht="42.75" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="74"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="65"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
-      <c r="B13" s="55" t="s">
-        <v>38</v>
+    <row r="13" spans="1:13" ht="16.2">
+      <c r="B13" s="67" t="s">
+        <v>36</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="57"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="69"/>
     </row>
     <row r="14" spans="1:13" ht="51" customHeight="1">
-      <c r="B14" s="61" t="s">
-        <v>55</v>
+      <c r="B14" s="73" t="s">
+        <v>50</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="63"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="75"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="67" t="s">
-        <v>41</v>
+      <c r="B15" s="76" t="s">
+        <v>39</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="67" t="s">
-        <v>47</v>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="76" t="s">
+        <v>45</v>
       </c>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="69"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="78"/>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="34"/>
@@ -45182,37 +45148,37 @@
       <c r="L31" s="41"/>
       <c r="M31" s="42"/>
     </row>
-    <row r="33" spans="2:13" ht="16.5">
-      <c r="B33" s="55" t="s">
-        <v>48</v>
+    <row r="33" spans="2:13" ht="16.2">
+      <c r="B33" s="67" t="s">
+        <v>46</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="57"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="69"/>
     </row>
     <row r="34" spans="2:13" ht="33.75" customHeight="1">
-      <c r="B34" s="58" t="s">
-        <v>54</v>
+      <c r="B34" s="70" t="s">
+        <v>49</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="60"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="72"/>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="34"/>
@@ -45440,6 +45406,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="D2:M2"/>
@@ -45453,17 +45430,6 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45481,111 +45447,111 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="10.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="78" t="s">
-        <v>11</v>
+      <c r="A2" s="81" t="s">
+        <v>10</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="84" t="s">
-        <v>21</v>
+      <c r="A3" s="87" t="s">
+        <v>20</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" customHeight="1">
-      <c r="A5" s="85" t="s">
-        <v>59</v>
+      <c r="A5" s="88" t="s">
+        <v>70</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A7" s="82" t="s">
-        <v>16</v>
+      <c r="A7" s="85" t="s">
+        <v>15</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="79" t="s">
-        <v>32</v>
+      <c r="B7" s="86"/>
+      <c r="C7" s="82" t="s">
+        <v>31</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="81"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="84"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="25.5">
+    <row r="9" spans="1:7" ht="27.6">
       <c r="A9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="29" t="s">
+      <c r="E9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="F9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="29" t="s">
-        <v>15</v>
-      </c>
       <c r="G9" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="13.8">
       <c r="A10" s="21"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -45596,7 +45562,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -45622,91 +45588,91 @@
   <dimension ref="A2:G10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="10.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="88" t="s">
-        <v>17</v>
+      <c r="A2" s="91" t="s">
+        <v>16</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="90"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
     </row>
     <row r="5" spans="1:7" ht="67.5" customHeight="1">
-      <c r="A5" s="85" t="s">
-        <v>60</v>
+      <c r="A5" s="88" t="s">
+        <v>71</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A7" s="84" t="s">
-        <v>16</v>
+      <c r="A7" s="87" t="s">
+        <v>15</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="91" t="s">
-        <v>33</v>
+      <c r="B7" s="87"/>
+      <c r="C7" s="94" t="s">
+        <v>32</v>
       </c>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
     </row>
-    <row r="9" spans="1:7" ht="25.5">
+    <row r="9" spans="1:7" ht="27.6">
       <c r="A9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="13.8">
       <c r="A10" s="21"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -45741,9 +45707,9 @@
       <selection activeCell="B4" sqref="B4:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="16384" width="10" style="1"/>
@@ -45751,44 +45717,44 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1"/>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="92" t="s">
-        <v>24</v>
+      <c r="A2" s="95" t="s">
+        <v>23</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
     </row>
     <row r="4" spans="1:10" ht="53.25" customHeight="1">
       <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="93" t="s">
-        <v>68</v>
+      <c r="B4" s="96" t="s">
+        <v>60</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="95"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="98"/>
     </row>
     <row r="6" spans="1:10" ht="39.75" customHeight="1">
       <c r="A6" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="13.8">
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
     </row>
@@ -45814,21 +45780,21 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="92" t="s">
-        <v>62</v>
+      <c r="A2" s="95" t="s">
+        <v>54</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
@@ -45840,11 +45806,11 @@
       <c r="A4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="93" t="s">
-        <v>63</v>
+      <c r="B4" s="96" t="s">
+        <v>55</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="95"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="45"/>
       <c r="F4" s="45"/>
       <c r="G4" s="45"/>
@@ -45852,15 +45818,15 @@
       <c r="I4" s="45"/>
       <c r="J4" s="45"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="13.8">
       <c r="A6" s="29" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="13.8">
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
     </row>
@@ -45883,23 +45849,23 @@
   <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="54.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="54.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="18">
-      <c r="A2" s="92" t="s">
-        <v>35</v>
+    <row r="2" spans="1:2" ht="17.399999999999999">
+      <c r="A2" s="95" t="s">
+        <v>72</v>
       </c>
-      <c r="B2" s="92"/>
+      <c r="B2" s="95"/>
     </row>
-    <row r="3" spans="1:2" ht="18">
+    <row r="3" spans="1:2" ht="17.399999999999999">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
     </row>
@@ -45908,22 +45874,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="13.8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="13.8">
       <c r="A6" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" ht="13.8">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
     </row>
@@ -45948,11 +45914,11 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="7" width="13.140625" style="101" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" style="101" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="7" width="13.109375" style="49" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" style="49" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -45965,17 +45931,17 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="A2" s="96" t="s">
-        <v>70</v>
+    <row r="2" spans="1:8" ht="17.399999999999999">
+      <c r="A2" s="99" t="s">
+        <v>61</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1"/>
@@ -45988,18 +45954,18 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="98" t="s">
-        <v>71</v>
+      <c r="B4" s="100"/>
+      <c r="C4" s="101" t="s">
+        <v>62</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1"/>
@@ -46011,41 +45977,41 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="30">
-      <c r="A6" s="99" t="s">
-        <v>72</v>
+    <row r="6" spans="1:8" ht="28.8">
+      <c r="A6" s="47" t="s">
+        <v>63</v>
       </c>
-      <c r="B6" s="99" t="s">
-        <v>73</v>
+      <c r="B6" s="47" t="s">
+        <v>64</v>
       </c>
-      <c r="C6" s="99" t="s">
-        <v>74</v>
+      <c r="C6" s="47" t="s">
+        <v>65</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="99" t="s">
+      <c r="E6" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="99" t="s">
+      <c r="G6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="99" t="s">
-        <v>56</v>
+      <c r="H6" s="47" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -46070,11 +46036,11 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="7" width="13.140625" style="101" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" style="101" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="7" width="13.109375" style="49" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" style="49" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -46087,17 +46053,17 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="A2" s="96" t="s">
-        <v>75</v>
+    <row r="2" spans="1:8" ht="17.399999999999999">
+      <c r="A2" s="99" t="s">
+        <v>66</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1"/>
@@ -46110,18 +46076,18 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="36" customHeight="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="98" t="s">
-        <v>76</v>
+      <c r="B4" s="100"/>
+      <c r="C4" s="101" t="s">
+        <v>67</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1"/>
@@ -46133,41 +46099,41 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="30">
-      <c r="A6" s="99" t="s">
-        <v>72</v>
+    <row r="6" spans="1:8" ht="28.8">
+      <c r="A6" s="47" t="s">
+        <v>63</v>
       </c>
-      <c r="B6" s="99" t="s">
-        <v>73</v>
+      <c r="B6" s="47" t="s">
+        <v>64</v>
       </c>
-      <c r="C6" s="99" t="s">
-        <v>74</v>
+      <c r="C6" s="47" t="s">
+        <v>65</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="99" t="s">
+      <c r="E6" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="99" t="s">
+      <c r="G6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="99" t="s">
-        <v>56</v>
+      <c r="H6" s="47" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
